--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,15 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250501</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>analysis_results_20250430</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>analysis_results_20250429</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>project</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -463,15 +478,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -485,15 +515,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -507,15 +552,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -529,15 +589,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -551,15 +626,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -573,15 +663,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -595,15 +700,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -617,15 +737,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -639,15 +774,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -661,15 +811,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -683,15 +848,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -705,15 +885,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250503</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250501</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250430</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250429</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -478,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,15 +498,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -530,15 +540,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -567,15 +582,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -589,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,15 +624,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -641,15 +666,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -678,15 +708,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -715,15 +750,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -737,7 +777,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,15 +792,20 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -789,15 +834,20 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -811,7 +861,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -826,15 +876,20 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -863,15 +918,20 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -885,7 +945,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,15 +960,20 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250504</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250503</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250501</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250430</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250429</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -488,7 +493,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,15 +508,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -545,15 +555,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -567,7 +582,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,15 +602,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -609,12 +629,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -629,15 +649,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -671,15 +696,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -693,7 +723,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -713,15 +743,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -735,7 +770,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -755,15 +790,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -782,7 +822,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -797,15 +837,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -839,15 +884,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -866,7 +916,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -881,15 +931,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -923,15 +978,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -945,12 +1005,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -965,15 +1025,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>analysis_results_20250504</t>
+          <t>analysis_results_20250505</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>analysis_results_20250503</t>
+          <t>project</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>analysis_results_20250501</t>
+          <t>department</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>analysis_results_20250430</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>analysis_results_20250429</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>department</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -483,54 +463,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/logs/marketing/campaigns/job_segment_users</t>
+          <t>/logs/operations/scheduling/job_maintenance_plan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>operations</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>scheduling</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>marketing</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>campaigns</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>job_segment_users</t>
+          <t>job_maintenance_plan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/logs/marketing/campaigns/job_update_crm</t>
+          <t>/logs/operations/scheduling/job_staff_roster</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,44 +500,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>operations</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>scheduling</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>marketing</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>campaigns</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>job_update_crm</t>
+          <t>job_staff_roster</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/logs/marketing/campaigns/job_email_blast</t>
+          <t>/logs/operations/scheduling/job_resource_alloc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -587,44 +527,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>operations</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>scheduling</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>marketing</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>campaigns</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>job_email_blast</t>
+          <t>job_resource_alloc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/logs/marketing/analytics/job_web_traffic</t>
+          <t>/logs/operations/logistics/job_warehouse_mgmt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -634,44 +554,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operations</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>logistics</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>marketing</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>analytics</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>job_web_traffic</t>
+          <t>job_warehouse_mgmt</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/logs/marketing/analytics/job_conversion_rate</t>
+          <t>/logs/operations/logistics/job_shipment_track</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -681,138 +581,78 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operations</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>logistics</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>marketing</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>analytics</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>job_conversion_rate</t>
+          <t>job_shipment_track</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/logs/marketing/analytics/job_roi_report</t>
+          <t>/logs/operations/logistics/job_inventory_check</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>operations</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>logistics</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>marketing</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>analytics</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>job_roi_report</t>
+          <t>job_inventory_check</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>/logs/finance/reporting/job_report_daily</t>
+          <t>/logs/hr/payroll/job_tax_withhold</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>hr</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>payroll</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>finance</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>reporting</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>job_report_daily</t>
+          <t>job_tax_withhold</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>/logs/finance/reporting/job_report_weekly</t>
+          <t>/logs/hr/payroll/job_salary_calc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -822,44 +662,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>hr</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>payroll</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>finance</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>reporting</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>job_report_weekly</t>
+          <t>job_salary_calc</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>/logs/finance/reporting/job_report_monthly</t>
+          <t>/logs/hr/payroll/job_bonus_process</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -869,44 +689,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>hr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>payroll</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>finance</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>reporting</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>job_report_monthly</t>
+          <t>job_bonus_process</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>/logs/finance/billing/job_payment_proc</t>
+          <t>/logs/hr/recruiting/job_offer_gen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -916,44 +716,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>hr</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>recruiting</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>finance</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>billing</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>job_payment_proc</t>
+          <t>job_offer_gen</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>/logs/finance/billing/job_tax_calc</t>
+          <t>/logs/hr/recruiting/job_interview_sched</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -963,82 +743,366 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>hr</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>recruiting</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>finance</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>billing</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>job_tax_calc</t>
+          <t>job_interview_sched</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>/logs/hr/recruiting/job_candidate_screen</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>recruiting</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>job_candidate_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>/logs/marketing/campaigns/job_segment_users</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>campaigns</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>job_segment_users</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>/logs/marketing/campaigns/job_update_crm</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>campaigns</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>job_update_crm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>/logs/marketing/campaigns/job_email_blast</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>campaigns</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>job_email_blast</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>/logs/marketing/analytics/job_web_traffic</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>analytics</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>job_web_traffic</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>/logs/marketing/analytics/job_conversion_rate</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>analytics</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>job_conversion_rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>/logs/marketing/analytics/job_roi_report</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>analytics</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>job_roi_report</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>/logs/finance/reporting/job_report_daily</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>finance</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>reporting</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>job_report_daily</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>/logs/finance/reporting/job_report_weekly</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>finance</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>reporting</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>job_report_weekly</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>/logs/finance/reporting/job_report_monthly</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>finance</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>reporting</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>job_report_monthly</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>/logs/finance/billing/job_payment_proc</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>finance</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>billing</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>job_payment_proc</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>/logs/finance/billing/job_tax_calc</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>finance</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>billing</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>job_tax_calc</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>/logs/finance/billing/job_invoice_gen</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250506</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -473,15 +478,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -500,15 +510,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -522,20 +537,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -554,15 +574,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -576,20 +601,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -603,20 +633,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -630,20 +665,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -657,20 +697,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -684,20 +729,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -716,15 +766,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -743,15 +798,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -770,15 +830,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -792,20 +857,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -824,15 +894,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -851,15 +926,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -873,20 +953,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -905,15 +990,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -932,15 +1022,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -954,20 +1049,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -986,15 +1086,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -1008,20 +1113,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -1040,15 +1150,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -1067,15 +1182,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -1094,15 +1214,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250508</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -483,15 +488,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -515,15 +525,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -542,20 +557,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -579,15 +599,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -601,25 +626,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -633,25 +663,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -665,25 +700,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -702,20 +742,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -734,20 +779,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -771,15 +821,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -793,7 +848,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,15 +858,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -835,15 +895,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -862,20 +927,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -889,7 +959,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,15 +969,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -921,7 +996,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,15 +1006,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -958,20 +1038,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -995,15 +1080,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -1017,7 +1107,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,15 +1117,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -1054,20 +1149,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -1091,15 +1191,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -1113,25 +1218,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -1145,7 +1255,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1155,15 +1265,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -1177,7 +1292,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,15 +1302,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -1219,15 +1339,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250511</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -478,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,15 +498,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -515,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,15 +540,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -562,20 +577,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -604,15 +624,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -631,25 +656,30 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -668,25 +698,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -700,30 +735,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -747,20 +787,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -774,7 +819,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -784,20 +829,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -826,15 +876,20 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -853,7 +908,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,15 +918,20 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -900,15 +960,20 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -932,20 +997,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -959,12 +1029,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -974,15 +1044,20 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -996,12 +1071,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1011,15 +1086,20 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1043,20 +1123,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -1070,7 +1155,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1085,15 +1170,20 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -1112,7 +1202,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1122,15 +1212,20 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -1154,20 +1249,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -1196,15 +1296,20 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -1223,25 +1328,30 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -1255,12 +1365,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1270,15 +1380,20 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -1292,12 +1407,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1307,15 +1422,20 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -1329,7 +1449,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1344,15 +1464,20 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250513</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -488,7 +493,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,15 +508,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -525,12 +535,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -545,15 +555,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -582,20 +597,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -609,7 +629,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,15 +649,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -651,7 +676,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,25 +686,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -693,7 +723,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,25 +733,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -740,30 +775,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -792,20 +832,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -819,12 +864,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -834,20 +879,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -881,15 +931,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -903,7 +958,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -913,7 +968,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -923,15 +978,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -945,7 +1005,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -965,15 +1025,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1002,20 +1067,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1034,12 +1104,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1049,15 +1119,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1076,12 +1151,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1091,15 +1166,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1128,20 +1208,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -1155,12 +1240,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1175,15 +1260,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -1207,7 +1297,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1217,15 +1307,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -1254,20 +1349,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -1301,15 +1401,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -1323,7 +1428,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1333,25 +1438,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -1365,17 +1475,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1385,15 +1495,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -1407,17 +1522,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1427,15 +1542,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -1454,7 +1574,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1469,15 +1589,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250515</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -498,7 +503,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -513,15 +518,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -540,12 +550,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -560,15 +570,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -602,20 +617,25 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -634,7 +654,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -654,15 +674,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -681,7 +706,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -691,25 +716,30 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -723,12 +753,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -738,25 +768,30 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -780,30 +815,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -817,7 +857,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -837,20 +877,25 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -864,17 +909,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -884,20 +929,25 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -911,7 +961,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -936,15 +986,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -958,12 +1013,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -973,7 +1028,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -983,15 +1038,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1010,7 +1070,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1030,15 +1090,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1052,7 +1117,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1072,20 +1137,25 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1109,12 +1179,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1124,15 +1194,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1146,7 +1221,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1156,12 +1231,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1171,15 +1246,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1193,7 +1273,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1213,20 +1293,25 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -1245,12 +1330,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1265,15 +1350,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -1287,7 +1377,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1302,7 +1392,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1312,15 +1402,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -1354,20 +1449,25 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -1406,15 +1506,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -1428,12 +1533,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1443,25 +1548,30 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -1475,22 +1585,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1500,15 +1610,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -1522,22 +1637,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1547,15 +1662,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -1569,7 +1689,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1579,7 +1699,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1594,15 +1714,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,45 +441,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250518</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -493,7 +498,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -508,7 +513,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -523,15 +528,20 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -545,7 +555,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -555,12 +565,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -575,15 +585,20 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -597,7 +612,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -622,20 +637,25 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -649,7 +669,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -659,7 +679,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -679,15 +699,20 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -711,7 +736,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -721,25 +746,30 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -758,12 +788,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -773,25 +803,30 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -820,30 +855,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -862,7 +902,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -882,20 +922,25 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -909,22 +954,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -934,20 +979,25 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -961,12 +1011,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -991,15 +1041,20 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1018,12 +1073,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1033,7 +1088,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1043,15 +1098,20 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1075,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1095,15 +1155,20 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1122,7 +1187,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1142,20 +1207,25 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1184,12 +1254,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1199,15 +1269,20 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1221,12 +1296,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1236,12 +1311,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1251,15 +1326,20 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1273,12 +1353,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1298,20 +1378,25 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -1335,12 +1420,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1355,15 +1440,20 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -1382,7 +1472,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1397,7 +1487,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1407,15 +1497,20 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -1454,20 +1549,25 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -1481,7 +1581,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1511,15 +1611,20 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -1538,12 +1643,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1553,25 +1658,30 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -1590,22 +1700,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1615,15 +1725,20 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -1642,22 +1757,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1667,15 +1782,20 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -1694,7 +1814,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1704,7 +1824,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1719,15 +1839,20 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,50 +441,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250520</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -503,7 +508,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,7 +523,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -533,15 +538,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -560,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -570,12 +580,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -590,15 +600,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -612,12 +627,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -642,20 +657,25 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -674,7 +694,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -684,7 +704,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -704,15 +724,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -741,7 +766,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -751,25 +776,30 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -793,12 +823,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -808,25 +838,30 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -860,30 +895,35 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -907,7 +947,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -927,20 +967,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -959,22 +1004,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -984,20 +1029,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1011,17 +1061,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1046,15 +1096,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1068,7 +1123,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1078,12 +1133,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1093,7 +1148,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1103,15 +1158,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1140,7 +1200,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1160,15 +1220,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1192,7 +1257,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1212,20 +1277,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1259,12 +1329,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1274,15 +1344,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1301,12 +1376,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1316,12 +1391,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1331,15 +1406,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1353,17 +1433,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1383,20 +1463,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -1425,12 +1510,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1445,15 +1530,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -1467,7 +1557,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1477,7 +1567,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1492,7 +1582,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1502,15 +1592,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -1554,20 +1649,25 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -1581,12 +1681,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1616,15 +1716,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -1648,12 +1753,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1663,25 +1768,30 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -1695,7 +1805,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1705,22 +1815,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1730,15 +1840,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -1752,7 +1867,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1762,22 +1877,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1787,15 +1902,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -1819,7 +1939,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1829,7 +1949,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1844,15 +1964,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,55 +441,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250522</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -513,7 +518,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -528,7 +533,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -543,15 +548,20 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -575,7 +585,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -585,12 +595,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -605,15 +615,20 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -627,17 +642,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -662,20 +677,25 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -689,7 +709,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -699,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -709,7 +729,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -729,15 +749,20 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -751,7 +776,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -771,7 +796,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -781,25 +806,30 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -828,12 +858,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -843,25 +873,30 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -875,7 +910,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -900,30 +935,35 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -937,7 +977,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -952,7 +992,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -972,20 +1012,25 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1009,22 +1054,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1034,20 +1079,25 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1061,22 +1111,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1101,15 +1151,20 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1123,12 +1178,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1138,12 +1193,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1153,7 +1208,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1163,15 +1218,20 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1205,7 +1265,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1225,15 +1285,20 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1247,7 +1312,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1262,7 +1327,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1282,20 +1347,25 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1334,12 +1404,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1349,15 +1419,20 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1371,7 +1446,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1381,12 +1456,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1396,12 +1471,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1411,15 +1486,20 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1433,22 +1513,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1468,20 +1548,25 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -1495,7 +1580,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1515,12 +1600,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1535,15 +1620,20 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -1562,7 +1652,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1572,7 +1662,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1587,7 +1677,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1597,15 +1687,20 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -1654,20 +1749,25 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -1681,17 +1781,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1721,15 +1821,20 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -1758,12 +1863,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1773,25 +1878,30 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -1805,12 +1915,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1820,22 +1930,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1845,15 +1955,20 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -1867,12 +1982,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1882,22 +1997,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1907,15 +2022,20 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -1929,7 +2049,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1944,7 +2064,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1954,7 +2074,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1969,15 +2089,20 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,60 +441,65 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250525</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -523,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -538,7 +543,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -553,15 +558,20 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -575,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -590,7 +600,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -600,12 +610,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -620,15 +630,20 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -642,22 +657,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -682,20 +697,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -714,7 +734,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -724,7 +744,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -734,7 +754,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -754,15 +774,20 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -781,7 +806,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -801,7 +826,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -811,25 +836,30 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -863,12 +893,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -878,25 +908,30 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -910,12 +945,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -940,30 +975,35 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -982,7 +1022,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -997,7 +1037,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1017,20 +1057,25 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1059,22 +1104,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1084,20 +1129,25 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1116,22 +1166,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1156,15 +1206,20 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1178,17 +1233,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1198,12 +1253,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1213,7 +1268,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1223,15 +1278,20 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1270,7 +1330,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1290,15 +1350,20 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1317,7 +1382,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1332,7 +1397,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1352,20 +1417,25 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1409,12 +1479,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1424,15 +1494,20 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1446,12 +1521,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1461,12 +1536,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1476,12 +1551,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1491,15 +1566,20 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1513,27 +1593,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1553,20 +1633,25 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -1580,12 +1665,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1605,12 +1690,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1625,15 +1710,20 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -1647,7 +1737,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1657,7 +1747,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1667,7 +1757,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1682,7 +1772,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1692,15 +1782,20 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -1754,20 +1849,25 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -1781,22 +1881,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1826,15 +1926,20 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -1848,7 +1953,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1868,12 +1973,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1883,25 +1988,30 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -1915,17 +2025,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1935,22 +2045,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1960,15 +2070,20 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -1982,17 +2097,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2002,22 +2117,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2027,15 +2142,20 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -2049,12 +2169,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2069,7 +2189,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2079,7 +2199,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2094,15 +2214,20 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250527</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -513,7 +518,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -533,7 +538,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -548,7 +553,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,15 +568,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -590,7 +600,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -605,7 +615,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -615,12 +625,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -635,15 +645,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -662,22 +677,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -702,20 +717,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -729,7 +749,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -739,7 +759,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -749,7 +769,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -759,7 +779,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -779,15 +799,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -811,7 +836,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -831,7 +856,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -841,25 +866,30 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -898,12 +928,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -913,25 +943,30 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -945,17 +980,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -980,30 +1015,35 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1027,7 +1067,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1042,7 +1082,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1062,20 +1102,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1109,22 +1154,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1134,20 +1179,25 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1161,7 +1211,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1171,22 +1221,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1211,15 +1261,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1238,17 +1293,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1258,12 +1313,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1273,7 +1328,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1283,15 +1338,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1335,7 +1395,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1355,15 +1415,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1387,7 +1452,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1402,7 +1467,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1422,20 +1487,25 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1449,7 +1519,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1484,12 +1554,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1499,15 +1569,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1521,17 +1596,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1541,12 +1616,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1556,12 +1631,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1571,15 +1646,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1598,27 +1678,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1638,20 +1718,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -1665,17 +1750,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1695,12 +1780,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1715,15 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -1737,12 +1827,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1752,7 +1842,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1762,7 +1852,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1777,7 +1867,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1787,15 +1877,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -1854,20 +1949,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -1881,27 +1981,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1931,15 +2031,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -1958,7 +2063,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1978,12 +2083,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1993,25 +2098,30 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -2025,22 +2135,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2050,22 +2160,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2075,15 +2185,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -2097,22 +2212,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2122,22 +2237,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2147,15 +2262,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -2174,12 +2294,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2194,7 +2314,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2204,7 +2324,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2219,15 +2339,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,70 +441,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250529</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -518,12 +523,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -543,7 +548,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -558,7 +563,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -573,15 +578,20 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -605,7 +615,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -620,7 +630,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -630,12 +640,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -650,15 +660,20 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -682,22 +697,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -722,20 +737,25 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -754,7 +774,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -764,7 +784,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -774,7 +794,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -784,7 +804,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -804,15 +824,20 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -841,7 +866,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -861,7 +886,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -871,25 +896,30 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -933,12 +963,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -948,25 +978,30 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -985,17 +1020,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1020,30 +1055,35 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1072,7 +1112,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1087,7 +1127,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1107,20 +1147,25 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1134,7 +1179,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1159,22 +1204,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1184,20 +1229,25 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1211,12 +1261,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1226,22 +1276,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1266,15 +1316,20 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1298,17 +1353,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1318,12 +1373,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1333,7 +1388,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1343,15 +1398,20 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1365,7 +1425,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1400,7 +1460,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1420,15 +1480,20 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1457,7 +1522,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1472,7 +1537,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1492,20 +1557,25 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1524,7 +1594,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1559,12 +1629,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1574,15 +1644,20 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1601,17 +1676,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1621,12 +1696,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1636,12 +1711,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1651,15 +1726,20 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1673,7 +1753,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1683,27 +1763,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1723,20 +1803,25 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -1750,22 +1835,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1785,12 +1870,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1805,15 +1890,20 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -1827,17 +1917,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1847,7 +1937,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1857,7 +1947,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1872,7 +1962,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1882,15 +1972,20 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -1954,20 +2049,25 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -1981,32 +2081,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2036,15 +2136,20 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -2058,7 +2163,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2068,7 +2173,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2088,12 +2193,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2103,25 +2208,30 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -2135,27 +2245,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2165,22 +2275,22 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2190,15 +2300,20 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -2217,22 +2332,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2242,22 +2357,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2267,15 +2382,20 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -2289,7 +2409,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2299,12 +2419,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2319,7 +2439,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2329,7 +2449,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2344,15 +2464,20 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,75 +441,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250601</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -523,17 +528,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -553,7 +558,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -568,7 +573,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -583,15 +588,20 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -620,7 +630,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -635,7 +645,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -645,12 +655,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -665,15 +675,20 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -702,22 +717,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -742,20 +757,25 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -769,7 +789,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -779,7 +799,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -789,7 +809,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -799,7 +819,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -809,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -829,15 +849,20 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -871,7 +896,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -891,7 +916,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -901,25 +926,30 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -968,12 +998,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -983,25 +1013,30 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1015,7 +1050,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1025,17 +1060,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1060,30 +1095,35 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1097,7 +1137,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1117,7 +1157,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1132,7 +1172,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1152,20 +1192,25 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1184,7 +1229,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1209,22 +1254,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1234,20 +1279,25 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1266,12 +1316,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1281,22 +1331,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1321,15 +1371,20 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1358,17 +1413,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1378,12 +1433,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1393,7 +1448,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1403,15 +1458,20 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1425,12 +1485,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1465,7 +1525,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1485,15 +1545,20 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1507,7 +1572,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1527,7 +1592,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1542,7 +1607,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1562,20 +1627,25 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1589,7 +1659,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1599,7 +1669,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1634,12 +1704,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1649,15 +1719,20 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1681,17 +1756,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1701,12 +1776,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1716,12 +1791,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1731,15 +1806,20 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1758,7 +1838,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1768,27 +1848,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1808,20 +1888,25 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -1840,22 +1925,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1875,12 +1960,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1895,15 +1980,20 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -1922,17 +2012,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1942,7 +2032,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1952,7 +2042,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1967,7 +2057,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1977,15 +2067,20 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -1999,7 +2094,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2054,20 +2149,25 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -2086,32 +2186,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2141,15 +2241,20 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -2168,7 +2273,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2178,7 +2283,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2198,12 +2303,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2213,25 +2318,30 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -2250,27 +2360,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2280,22 +2390,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2305,15 +2415,20 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -2337,22 +2452,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2362,22 +2477,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2387,15 +2502,20 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -2409,12 +2529,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2424,12 +2544,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2444,7 +2564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2454,7 +2574,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2469,15 +2589,20 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,80 +441,85 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250603</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -528,22 +533,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -563,7 +568,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -578,7 +583,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -593,15 +598,20 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -615,7 +625,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -635,7 +645,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -650,7 +660,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -660,12 +670,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -680,15 +690,20 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -702,7 +717,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -722,22 +737,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -762,20 +777,25 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -794,7 +814,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -804,7 +824,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -814,7 +834,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -824,7 +844,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -834,7 +854,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -854,15 +874,20 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -901,7 +926,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -921,7 +946,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -931,25 +956,30 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -963,7 +993,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1003,12 +1033,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1018,25 +1048,30 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1055,7 +1090,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1065,17 +1100,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1100,30 +1135,35 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1137,12 +1177,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1162,7 +1202,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1177,7 +1217,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1197,20 +1237,25 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1224,7 +1269,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1234,7 +1279,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1259,22 +1304,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1284,20 +1329,25 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1321,12 +1371,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1336,22 +1386,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1376,15 +1426,20 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1418,17 +1473,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1438,12 +1493,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1453,7 +1508,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1463,15 +1518,20 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1485,17 +1545,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1530,7 +1590,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1550,15 +1610,20 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1572,12 +1637,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1597,7 +1662,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1612,7 +1677,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1632,20 +1697,25 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1659,12 +1729,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1674,7 +1744,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1709,12 +1779,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1724,15 +1794,20 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1746,7 +1821,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1761,17 +1836,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1781,12 +1856,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1796,12 +1871,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1811,15 +1886,20 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1843,7 +1923,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1853,27 +1933,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1893,20 +1973,25 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -1930,22 +2015,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1965,12 +2050,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1985,15 +2070,20 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -2017,17 +2107,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2037,7 +2127,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2047,7 +2137,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2062,7 +2152,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2072,15 +2162,20 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -2094,12 +2189,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2154,20 +2249,25 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -2181,7 +2281,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2191,32 +2291,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2246,15 +2346,20 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -2278,7 +2383,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2288,7 +2393,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2308,12 +2413,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2323,25 +2428,30 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -2355,7 +2465,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2365,27 +2475,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2395,22 +2505,22 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2420,15 +2530,20 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -2442,7 +2557,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2457,22 +2572,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2482,22 +2597,22 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2507,15 +2622,20 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -2529,17 +2649,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2549,12 +2669,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2569,7 +2689,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2579,7 +2699,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2594,15 +2714,20 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,85 +441,90 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250605</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -533,27 +538,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -573,7 +578,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -588,7 +593,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -603,15 +608,20 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -625,12 +635,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -650,7 +660,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -665,7 +675,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -675,12 +685,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -695,15 +705,20 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -717,12 +732,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -742,22 +757,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -782,20 +797,25 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -809,7 +829,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -819,7 +839,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -829,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -839,7 +859,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -849,7 +869,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -859,7 +879,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -879,15 +899,20 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -931,7 +956,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -951,7 +976,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -961,25 +986,30 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -998,7 +1028,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1038,12 +1068,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1053,25 +1083,30 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1095,7 +1130,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1105,17 +1140,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1140,30 +1175,35 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1182,12 +1222,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1207,7 +1247,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1222,7 +1262,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1242,20 +1282,25 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1274,7 +1319,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1284,7 +1329,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1309,22 +1354,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1334,20 +1379,25 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1376,12 +1426,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1391,22 +1441,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1431,15 +1481,20 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1453,7 +1508,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1478,17 +1533,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1498,12 +1553,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1513,7 +1568,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1523,15 +1578,20 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1545,22 +1605,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1595,7 +1655,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1615,15 +1675,20 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1642,12 +1707,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1667,7 +1732,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1682,7 +1747,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1702,20 +1767,25 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1729,17 +1799,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1749,7 +1819,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1784,12 +1854,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1799,15 +1869,20 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1826,7 +1901,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1841,17 +1916,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1861,12 +1936,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1876,12 +1951,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1891,15 +1966,20 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1913,7 +1993,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1928,7 +2008,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1938,27 +2018,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1978,20 +2058,25 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -2020,22 +2105,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2055,12 +2140,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2075,15 +2160,20 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -2097,7 +2187,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2112,17 +2202,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2132,7 +2222,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2142,7 +2232,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2157,7 +2247,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2167,15 +2257,20 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -2194,12 +2289,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2254,20 +2349,25 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -2286,7 +2386,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2296,32 +2396,32 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2351,15 +2451,20 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -2388,7 +2493,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2398,7 +2503,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2418,12 +2523,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2433,25 +2538,30 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -2470,7 +2580,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2480,27 +2590,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2510,22 +2620,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2535,15 +2645,20 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -2557,12 +2672,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2577,22 +2692,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2602,22 +2717,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2627,15 +2742,20 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -2649,22 +2769,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2674,12 +2794,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2694,7 +2814,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2704,7 +2824,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2719,15 +2839,20 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,90 +441,95 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250608</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -543,27 +548,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -583,7 +588,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -598,7 +603,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -613,15 +618,20 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -640,12 +650,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -665,7 +675,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -680,7 +690,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -690,12 +700,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -710,15 +720,20 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -737,12 +752,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -762,22 +777,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -802,20 +817,25 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -834,7 +854,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -844,7 +864,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -854,7 +874,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -864,7 +884,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -874,7 +894,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -884,7 +904,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -904,15 +924,20 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -926,7 +951,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -961,7 +986,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -981,7 +1006,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -991,25 +1016,30 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1023,7 +1053,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1033,7 +1063,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1073,12 +1103,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1088,25 +1118,30 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1135,7 +1170,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1145,17 +1180,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1180,30 +1215,35 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1217,7 +1257,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1227,12 +1267,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1252,7 +1292,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1267,7 +1307,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1287,20 +1327,25 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1314,7 +1359,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1324,7 +1369,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1334,7 +1379,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1359,22 +1404,22 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1384,20 +1429,25 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1411,7 +1461,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1431,12 +1481,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1446,22 +1496,22 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1486,15 +1536,20 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1508,12 +1563,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1538,17 +1593,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1558,12 +1613,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1573,7 +1628,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1583,15 +1638,20 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1610,22 +1670,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1660,7 +1720,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1680,15 +1740,20 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1712,12 +1777,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1737,7 +1802,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1752,7 +1817,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1772,20 +1837,25 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1804,17 +1874,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1824,7 +1894,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1859,12 +1929,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1874,15 +1944,20 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1906,7 +1981,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1921,17 +1996,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1941,12 +2016,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1956,12 +2031,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1971,15 +2046,20 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -1993,12 +2073,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2013,7 +2093,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2023,27 +2103,27 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2063,20 +2143,25 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -2110,22 +2195,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2145,12 +2230,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2165,15 +2250,20 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -2192,7 +2282,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2207,17 +2297,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2227,7 +2317,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2237,7 +2327,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2252,7 +2342,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2262,15 +2352,20 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -2294,12 +2389,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2354,20 +2449,25 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -2381,7 +2481,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2391,7 +2491,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2401,32 +2501,32 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2456,15 +2556,20 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -2498,7 +2603,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2508,7 +2613,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2528,12 +2633,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2543,25 +2648,30 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -2575,7 +2685,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2585,7 +2695,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2595,27 +2705,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2625,22 +2735,22 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2650,15 +2760,20 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -2672,17 +2787,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2697,22 +2812,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2722,22 +2837,22 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2747,15 +2862,20 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -2769,27 +2889,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2799,12 +2919,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2819,7 +2939,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2829,7 +2949,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2844,15 +2964,20 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,95 +441,100 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250610</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -553,27 +558,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -593,7 +598,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -608,7 +613,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -623,15 +628,20 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -655,12 +665,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -680,7 +690,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -695,7 +705,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -705,12 +715,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -725,15 +735,20 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -747,7 +762,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -757,12 +772,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -782,22 +797,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -822,20 +837,25 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -849,7 +869,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -859,7 +879,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -869,7 +889,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -879,7 +899,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -889,7 +909,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -899,7 +919,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -909,7 +929,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -929,15 +949,20 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -956,7 +981,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -991,7 +1016,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1011,7 +1036,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1021,25 +1046,30 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1053,12 +1083,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1068,7 +1098,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1108,12 +1138,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1123,25 +1153,30 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1155,7 +1190,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1175,7 +1210,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1185,17 +1220,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1220,30 +1255,35 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1257,12 +1297,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1272,12 +1312,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1297,7 +1337,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1312,7 +1352,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1332,20 +1372,25 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1364,7 +1409,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1374,7 +1419,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1384,7 +1429,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1409,22 +1454,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1434,20 +1479,25 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1461,12 +1511,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1486,12 +1536,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1501,22 +1551,22 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1541,15 +1591,20 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1568,12 +1623,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1598,17 +1653,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1618,12 +1673,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1633,7 +1688,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1643,15 +1698,20 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1675,22 +1735,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1725,7 +1785,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1745,15 +1805,20 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1782,12 +1847,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1807,7 +1872,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1822,7 +1887,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1842,20 +1907,25 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1869,7 +1939,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1879,17 +1949,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1899,7 +1969,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1934,12 +2004,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1949,15 +2019,20 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -1986,7 +2061,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2001,17 +2076,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2021,12 +2096,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2036,12 +2111,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2051,15 +2126,20 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -2078,12 +2158,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2098,7 +2178,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2108,27 +2188,27 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2148,20 +2228,25 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -2175,7 +2260,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2200,22 +2285,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2235,12 +2320,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2255,15 +2340,20 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -2287,7 +2377,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2302,17 +2392,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2322,7 +2412,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2332,7 +2422,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2347,7 +2437,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2357,15 +2447,20 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -2394,12 +2489,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2454,20 +2549,25 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -2486,7 +2586,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2496,7 +2596,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2506,32 +2606,32 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2561,15 +2661,20 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -2608,7 +2713,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2618,7 +2723,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2638,12 +2743,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2653,25 +2758,30 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -2690,7 +2800,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2700,7 +2810,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2710,27 +2820,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2740,22 +2850,22 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2765,15 +2875,20 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -2787,22 +2902,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2817,22 +2932,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2842,22 +2957,22 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2867,15 +2982,20 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -2889,32 +3009,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2924,12 +3044,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2944,7 +3064,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2954,7 +3074,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2969,15 +3089,20 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,100 +441,105 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250612</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -563,27 +568,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -603,7 +608,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -618,7 +623,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -633,15 +638,20 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -655,7 +665,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -670,12 +680,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -695,7 +705,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -710,7 +720,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -720,12 +730,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -740,15 +750,20 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -762,12 +777,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -777,12 +792,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -802,22 +817,22 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -842,20 +857,25 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -869,12 +889,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -884,7 +904,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -894,7 +914,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -904,7 +924,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -914,7 +934,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -924,7 +944,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -934,7 +954,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -954,15 +974,20 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -976,7 +1001,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -986,7 +1011,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1021,7 +1046,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1041,7 +1066,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1051,25 +1076,30 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1083,17 +1113,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1103,7 +1133,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1143,12 +1173,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1158,25 +1188,30 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1190,12 +1225,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1215,7 +1250,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1225,17 +1260,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1260,30 +1295,35 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1297,17 +1337,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1317,12 +1357,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1342,7 +1382,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1357,7 +1397,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1377,20 +1417,25 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1404,7 +1449,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1414,7 +1459,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1424,7 +1469,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1434,7 +1479,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1459,22 +1504,22 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1484,20 +1529,25 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1516,12 +1566,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1541,12 +1591,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1556,22 +1606,22 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1596,15 +1646,20 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1628,12 +1683,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1658,17 +1713,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1678,12 +1733,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1693,7 +1748,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1703,15 +1758,20 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1725,7 +1785,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1740,22 +1800,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1790,7 +1850,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1810,15 +1870,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1852,12 +1917,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1877,7 +1942,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1892,7 +1957,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1912,20 +1977,25 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -1944,7 +2014,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1954,17 +2024,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1974,7 +2044,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2009,12 +2079,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2024,15 +2094,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2066,7 +2141,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2081,17 +2156,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2101,12 +2176,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2116,12 +2191,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2131,15 +2206,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -2163,12 +2243,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2183,7 +2263,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2193,27 +2273,27 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2233,20 +2313,25 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -2260,12 +2345,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2290,22 +2375,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2325,12 +2410,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2345,15 +2430,20 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -2382,7 +2472,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2397,17 +2487,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2417,7 +2507,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2427,7 +2517,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2442,7 +2532,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2452,15 +2542,20 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -2494,12 +2589,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2554,20 +2649,25 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -2591,7 +2691,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2601,7 +2701,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2611,32 +2711,32 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2666,15 +2766,20 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -2718,7 +2823,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2728,7 +2833,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2748,12 +2853,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2763,25 +2868,30 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -2805,7 +2915,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2815,7 +2925,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2825,27 +2935,27 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2855,22 +2965,22 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2880,15 +2990,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -2907,22 +3022,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2937,22 +3052,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2962,22 +3077,22 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2987,15 +3102,20 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -3009,37 +3129,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3049,12 +3169,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3069,7 +3189,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3079,7 +3199,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -3094,15 +3214,20 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,105 +441,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250615</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -573,27 +578,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -613,7 +618,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -628,7 +633,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -643,15 +648,20 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -665,12 +675,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -685,12 +695,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -710,7 +720,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -725,7 +735,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -735,12 +745,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -755,15 +765,20 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -777,17 +792,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -797,12 +812,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -822,22 +837,22 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -862,20 +877,25 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -889,17 +909,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -909,7 +929,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -919,7 +939,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -929,7 +949,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -939,7 +959,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -949,7 +969,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -959,7 +979,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -979,15 +999,20 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1006,7 +1031,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1016,7 +1041,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1051,7 +1076,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1071,7 +1096,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1081,25 +1106,30 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1118,17 +1148,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1138,7 +1168,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1178,12 +1208,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1193,25 +1223,30 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1230,12 +1265,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1255,7 +1290,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1265,17 +1300,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1300,30 +1335,35 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1342,17 +1382,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1362,12 +1402,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1387,7 +1427,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1402,7 +1442,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1422,20 +1462,25 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1454,7 +1499,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1464,7 +1509,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1474,7 +1519,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1484,7 +1529,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1509,22 +1554,22 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1534,20 +1579,25 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1561,7 +1611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1571,12 +1621,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1596,12 +1646,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1611,22 +1661,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1651,15 +1701,20 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1688,12 +1743,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1718,17 +1773,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1738,12 +1793,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1753,7 +1808,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1763,15 +1818,20 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1785,12 +1845,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1805,22 +1865,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1855,7 +1915,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1875,15 +1935,20 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1922,12 +1987,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1947,7 +2012,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1962,7 +2027,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1982,20 +2047,25 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2019,7 +2089,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2029,17 +2099,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2049,7 +2119,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2084,12 +2154,12 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2099,15 +2169,20 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2146,7 +2221,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2161,17 +2236,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2181,12 +2256,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2196,12 +2271,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2211,15 +2286,20 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -2233,7 +2313,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2248,12 +2328,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2268,7 +2348,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2278,27 +2358,27 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2318,20 +2398,25 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -2350,12 +2435,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2380,22 +2465,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2415,12 +2500,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2435,15 +2520,20 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -2457,7 +2547,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2477,7 +2567,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2492,17 +2582,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2512,7 +2602,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2522,7 +2612,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2537,7 +2627,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2547,15 +2637,20 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -2594,12 +2689,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2654,20 +2749,25 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -2681,7 +2781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2696,7 +2796,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2706,7 +2806,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2716,32 +2816,32 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2771,15 +2871,20 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -2828,7 +2933,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2838,7 +2943,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2858,12 +2963,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2873,25 +2978,30 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -2920,7 +3030,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2930,7 +3040,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2940,27 +3050,27 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2970,22 +3080,22 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2995,15 +3105,20 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -3027,22 +3142,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3057,22 +3172,22 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3082,22 +3197,22 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3107,15 +3222,20 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -3129,42 +3249,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3174,12 +3294,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3194,7 +3314,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3204,7 +3324,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -3219,15 +3339,20 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,110 +441,115 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250617</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -583,27 +588,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -623,7 +628,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -638,7 +643,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -653,15 +658,20 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -675,17 +685,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -700,12 +710,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -725,7 +735,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -740,7 +750,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -750,12 +760,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -770,15 +780,20 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -792,22 +807,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -817,12 +832,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -842,22 +857,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,20 +897,25 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -909,22 +929,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -934,7 +954,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -944,7 +964,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -954,7 +974,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -964,7 +984,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -974,7 +994,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -984,7 +1004,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1004,15 +1024,20 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1036,7 +1061,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1046,7 +1071,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1081,7 +1106,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1101,7 +1126,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1111,25 +1136,30 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1153,17 +1183,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1173,7 +1203,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1213,12 +1243,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1228,25 +1258,30 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1270,12 +1305,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1295,7 +1330,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1305,17 +1340,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1340,30 +1375,35 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1377,7 +1417,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1387,17 +1427,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1407,12 +1447,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1432,7 +1472,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1447,7 +1487,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1467,20 +1507,25 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1504,7 +1549,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1514,7 +1559,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1524,7 +1569,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1534,7 +1579,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1559,22 +1604,22 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1584,20 +1629,25 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1611,12 +1661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1626,12 +1676,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1651,12 +1701,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1666,22 +1716,22 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1706,15 +1756,20 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1748,12 +1803,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1778,17 +1833,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1798,12 +1853,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1813,7 +1868,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1823,15 +1878,20 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1845,17 +1905,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1870,22 +1930,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1920,7 +1980,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1940,15 +2000,20 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -1962,7 +2027,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1992,12 +2057,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2017,7 +2082,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2032,7 +2097,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2052,20 +2117,25 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2094,7 +2164,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2104,17 +2174,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2124,7 +2194,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2159,12 +2229,12 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2174,15 +2244,20 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2226,7 +2301,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2241,17 +2316,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2261,12 +2336,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2276,12 +2351,12 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2291,15 +2366,20 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -2313,12 +2393,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2333,12 +2413,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2353,7 +2433,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2363,27 +2443,27 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2403,20 +2483,25 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -2440,12 +2525,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2470,22 +2555,22 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2505,12 +2590,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2525,15 +2610,20 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -2547,12 +2637,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2572,7 +2662,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2587,17 +2677,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2607,7 +2697,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2617,7 +2707,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2632,7 +2722,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2642,15 +2732,20 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -2694,12 +2789,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2754,20 +2849,25 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -2781,12 +2881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2801,7 +2901,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2811,7 +2911,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2821,32 +2921,32 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2876,15 +2976,20 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -2938,7 +3043,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2948,7 +3053,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2968,12 +3073,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2983,25 +3088,30 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -3015,7 +3125,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3035,7 +3145,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3045,7 +3155,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3055,27 +3165,27 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3085,22 +3195,22 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -3110,15 +3220,20 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -3147,22 +3262,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3177,22 +3292,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3202,22 +3317,22 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -3227,15 +3342,20 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -3249,47 +3369,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3299,12 +3419,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3319,7 +3439,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -3329,7 +3449,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3344,15 +3464,20 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,115 +441,120 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250619</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -593,27 +598,27 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -633,7 +638,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -648,7 +653,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -663,15 +668,20 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -685,22 +695,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -715,12 +725,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -740,7 +750,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -755,7 +765,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -765,12 +775,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -785,15 +795,20 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -807,27 +822,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -837,12 +852,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -862,22 +877,22 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -902,20 +917,25 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -934,22 +954,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -959,7 +979,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -969,7 +989,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -979,7 +999,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -989,7 +1009,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -999,7 +1019,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1009,7 +1029,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1029,15 +1049,20 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1066,7 +1091,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1076,7 +1101,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1111,7 +1136,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1131,7 +1156,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1141,25 +1166,30 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1173,7 +1203,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1188,17 +1218,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1208,7 +1238,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1248,12 +1278,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1263,25 +1293,30 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1310,12 +1345,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1335,7 +1370,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1345,17 +1380,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1380,30 +1415,35 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1422,7 +1462,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1432,17 +1472,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1452,12 +1492,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1477,7 +1517,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1492,7 +1532,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1512,20 +1552,25 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1554,7 +1599,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1564,7 +1609,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1574,7 +1619,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1584,7 +1629,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1609,22 +1654,22 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1634,20 +1679,25 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1666,12 +1716,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1681,12 +1731,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1706,12 +1756,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1721,22 +1771,22 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1761,15 +1811,20 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1783,7 +1838,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1808,12 +1863,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1838,17 +1893,17 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1858,12 +1913,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1873,7 +1928,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1883,15 +1938,20 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1905,22 +1965,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1935,22 +1995,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1985,7 +2045,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2005,15 +2065,20 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2027,12 +2092,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2062,12 +2127,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2087,7 +2152,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2102,7 +2167,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2122,20 +2187,25 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2149,7 +2219,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2169,7 +2239,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2179,17 +2249,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2199,7 +2269,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2234,12 +2304,12 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2249,15 +2319,20 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2306,7 +2381,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2321,17 +2396,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2341,12 +2416,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2356,12 +2431,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2371,15 +2446,20 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -2398,12 +2478,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2418,12 +2498,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2438,7 +2518,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2448,27 +2528,27 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2488,20 +2568,25 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -2530,12 +2615,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2560,22 +2645,22 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2595,12 +2680,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2615,15 +2700,20 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -2637,17 +2727,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2667,7 +2757,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2682,17 +2772,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2702,7 +2792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2712,7 +2802,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2727,7 +2817,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2737,15 +2827,20 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -2794,12 +2889,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2854,20 +2949,25 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -2886,12 +2986,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2906,7 +3006,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2916,7 +3016,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2926,32 +3026,32 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2981,15 +3081,20 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -3048,7 +3153,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -3058,7 +3163,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -3078,12 +3183,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -3093,25 +3198,30 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -3125,12 +3235,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3150,7 +3260,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3160,7 +3270,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3170,27 +3280,27 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3200,22 +3310,22 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -3225,15 +3335,20 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -3267,22 +3382,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3297,22 +3412,22 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3322,22 +3437,22 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -3347,15 +3462,20 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -3369,52 +3489,52 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3424,12 +3544,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3444,7 +3564,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -3454,7 +3574,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -3469,15 +3589,20 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,120 +441,125 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250622</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -603,27 +608,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -643,7 +648,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -658,7 +663,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -673,15 +678,20 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -695,27 +705,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -730,12 +740,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -755,7 +765,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -770,7 +780,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -780,12 +790,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -800,15 +810,20 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -827,27 +842,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -857,12 +872,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -882,22 +897,22 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -922,20 +937,25 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -959,22 +979,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -984,7 +1004,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -994,7 +1014,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1004,7 +1024,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1014,7 +1034,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1024,7 +1044,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1034,7 +1054,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1054,15 +1074,20 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1076,7 +1101,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1096,7 +1121,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1106,7 +1131,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1141,7 +1166,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1161,7 +1186,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1171,25 +1196,30 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1203,12 +1233,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1223,17 +1253,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1243,7 +1273,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1283,12 +1313,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1298,25 +1328,30 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1350,12 +1385,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1375,7 +1410,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1385,17 +1420,17 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1420,30 +1455,35 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1457,7 +1497,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1467,7 +1507,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1477,17 +1517,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1497,12 +1537,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1522,7 +1562,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1537,7 +1577,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1557,20 +1597,25 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1604,7 +1649,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1614,7 +1659,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1624,7 +1669,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1634,7 +1679,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1659,22 +1704,22 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1684,20 +1729,25 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1711,7 +1761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1721,12 +1771,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1736,12 +1786,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1761,12 +1811,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1776,22 +1826,22 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1816,15 +1866,20 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1838,12 +1893,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1868,12 +1923,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1898,17 +1953,17 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1918,12 +1973,12 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1933,7 +1988,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1943,15 +1998,20 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -1965,27 +2025,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2000,22 +2060,22 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2050,7 +2110,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2070,15 +2130,20 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2097,12 +2162,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2132,12 +2197,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2157,7 +2222,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2172,7 +2237,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2192,20 +2257,25 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2219,12 +2289,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2244,7 +2314,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2254,17 +2324,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2274,7 +2344,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2309,12 +2379,12 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -2324,15 +2394,20 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2386,7 +2461,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2401,17 +2476,17 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2421,12 +2496,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2436,12 +2511,12 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -2451,15 +2526,20 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -2483,12 +2563,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2503,12 +2583,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2523,7 +2603,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2533,27 +2613,27 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2573,20 +2653,25 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -2620,12 +2705,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2650,22 +2735,22 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2685,12 +2770,12 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -2705,15 +2790,20 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -2732,17 +2822,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2762,7 +2852,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2777,17 +2867,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2797,7 +2887,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2807,7 +2897,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2822,7 +2912,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -2832,15 +2922,20 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -2894,12 +2989,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2954,20 +3049,25 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -2991,12 +3091,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3011,7 +3111,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3021,7 +3121,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3031,32 +3131,32 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -3086,15 +3186,20 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -3158,7 +3263,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3168,7 +3273,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3188,12 +3293,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -3203,25 +3308,30 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -3240,12 +3350,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3265,7 +3375,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3275,7 +3385,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3285,27 +3395,27 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3315,22 +3425,22 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -3340,15 +3450,20 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -3362,7 +3477,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3387,22 +3502,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3417,22 +3532,22 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -3442,22 +3557,22 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -3467,15 +3582,20 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -3494,52 +3614,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3549,12 +3669,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3569,7 +3689,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3579,7 +3699,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -3594,15 +3714,20 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,125 +441,130 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250624</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -613,27 +618,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -653,7 +658,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -668,7 +673,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -683,15 +688,20 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -705,32 +715,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -745,12 +755,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -770,7 +780,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -785,7 +795,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -795,12 +805,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -815,15 +825,20 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -837,7 +852,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,27 +862,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -877,12 +892,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -902,22 +917,22 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -942,20 +957,25 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -984,22 +1004,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1009,7 +1029,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1019,7 +1039,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1029,7 +1049,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1039,7 +1059,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1049,7 +1069,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1059,7 +1079,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1079,15 +1099,20 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1101,12 +1126,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1126,7 +1151,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1136,7 +1161,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1171,7 +1196,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1191,7 +1216,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1201,25 +1226,30 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1238,12 +1268,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1258,17 +1288,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1278,7 +1308,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1318,12 +1348,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1333,25 +1363,30 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1390,12 +1425,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1415,7 +1450,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1425,17 +1460,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1460,30 +1495,35 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1502,7 +1542,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1512,7 +1552,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1522,17 +1562,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1542,12 +1582,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1567,7 +1607,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1582,7 +1622,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1602,20 +1642,25 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1629,7 +1674,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1654,7 +1699,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1664,7 +1709,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1674,7 +1719,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1684,7 +1729,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1709,22 +1754,22 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1734,20 +1779,25 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1766,7 +1816,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1776,12 +1826,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1791,12 +1841,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1816,12 +1866,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1831,22 +1881,22 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1871,15 +1921,20 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1898,12 +1953,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1928,12 +1983,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1958,17 +2013,17 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1978,12 +2033,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1993,7 +2048,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2003,15 +2058,20 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2025,32 +2085,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2065,22 +2125,22 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2115,7 +2175,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2135,15 +2195,20 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2167,12 +2232,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2202,12 +2267,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2227,7 +2292,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2242,7 +2307,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2262,20 +2327,25 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2289,17 +2359,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2319,7 +2389,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2329,17 +2399,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2349,7 +2419,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2384,12 +2454,12 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2399,15 +2469,20 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2466,7 +2541,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2481,17 +2556,17 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2501,12 +2576,12 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2516,12 +2591,12 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -2531,15 +2606,20 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -2568,12 +2648,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2588,12 +2668,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2608,7 +2688,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2618,27 +2698,27 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2658,20 +2738,25 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -2710,12 +2795,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2740,22 +2825,22 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2775,12 +2860,12 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -2795,15 +2880,20 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -2817,7 +2907,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2827,17 +2917,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2857,7 +2947,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2872,17 +2962,17 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2892,7 +2982,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2902,7 +2992,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2917,7 +3007,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2927,15 +3017,20 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -2994,12 +3089,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -3054,20 +3149,25 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -3081,7 +3181,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3096,12 +3196,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3116,7 +3216,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3126,7 +3226,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3136,32 +3236,32 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -3191,15 +3291,20 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -3213,7 +3318,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3268,7 +3373,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -3278,7 +3383,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3298,12 +3403,12 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -3313,25 +3418,30 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -3345,7 +3455,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3355,12 +3465,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3380,7 +3490,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3390,7 +3500,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3400,27 +3510,27 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -3430,22 +3540,22 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -3455,15 +3565,20 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -3477,12 +3592,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3507,22 +3622,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3537,22 +3652,22 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -3562,22 +3677,22 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -3587,15 +3702,20 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -3609,7 +3729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3619,52 +3739,52 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3674,12 +3794,12 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -3694,7 +3814,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -3704,7 +3824,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -3719,15 +3839,20 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,130 +441,135 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250626</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -623,27 +628,27 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -663,7 +668,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -678,7 +683,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -693,15 +698,20 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -715,37 +725,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -760,12 +770,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -785,7 +795,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -800,7 +810,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -810,12 +820,12 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -830,15 +840,20 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -857,7 +872,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -867,27 +882,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -897,12 +912,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -922,22 +937,22 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -962,20 +977,25 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -989,7 +1009,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1009,22 +1029,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1034,7 +1054,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1044,7 +1064,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1054,7 +1074,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1064,7 +1084,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1074,7 +1094,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1084,7 +1104,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1104,15 +1124,20 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1131,12 +1156,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1156,7 +1181,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1166,7 +1191,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1201,7 +1226,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1221,7 +1246,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1231,25 +1256,30 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1263,7 +1293,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1273,12 +1303,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1293,17 +1323,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1313,7 +1343,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1353,12 +1383,12 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1368,25 +1398,30 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1430,12 +1465,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1455,7 +1490,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1465,17 +1500,17 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1500,30 +1535,35 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1537,7 +1577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1547,7 +1587,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1557,7 +1597,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1567,17 +1607,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1587,12 +1627,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1612,7 +1652,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1627,7 +1667,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1647,20 +1687,25 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1674,12 +1719,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1704,7 +1749,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1714,7 +1759,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1724,7 +1769,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1734,7 +1779,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1759,22 +1804,22 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1784,20 +1829,25 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1811,7 +1861,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1821,7 +1871,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1831,12 +1881,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1846,12 +1896,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1871,12 +1921,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1886,22 +1936,22 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1926,15 +1976,20 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -1958,12 +2013,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1988,12 +2043,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2018,17 +2073,17 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2038,12 +2093,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -2053,7 +2108,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2063,15 +2118,20 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2085,37 +2145,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2130,22 +2190,22 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2180,7 +2240,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -2200,15 +2260,20 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2222,7 +2287,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2237,12 +2302,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2272,12 +2337,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2297,7 +2362,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2312,7 +2377,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2332,20 +2397,25 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2364,17 +2434,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2394,7 +2464,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2404,17 +2474,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2424,7 +2494,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2459,12 +2529,12 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -2474,15 +2544,20 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2496,7 +2571,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2546,7 +2621,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2561,17 +2636,17 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2581,12 +2656,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2596,12 +2671,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2611,15 +2686,20 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -2653,12 +2733,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2673,12 +2753,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2693,7 +2773,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2703,27 +2783,27 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2743,20 +2823,25 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -2800,12 +2885,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2830,22 +2915,22 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2865,12 +2950,12 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2885,15 +2970,20 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -2912,7 +3002,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2922,17 +3012,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2952,7 +3042,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2967,17 +3057,17 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2987,7 +3077,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2997,7 +3087,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3012,7 +3102,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -3022,15 +3112,20 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -3094,12 +3189,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -3154,20 +3249,25 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -3186,7 +3286,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3201,12 +3301,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3221,7 +3321,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3231,7 +3331,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -3241,32 +3341,32 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -3296,15 +3396,20 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -3318,12 +3423,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3378,7 +3483,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3388,7 +3493,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3408,12 +3513,12 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -3423,25 +3528,30 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -3460,7 +3570,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3470,12 +3580,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3495,7 +3605,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3505,7 +3615,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -3515,27 +3625,27 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3545,22 +3655,22 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -3570,15 +3680,20 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -3597,12 +3712,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3627,22 +3742,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3657,22 +3772,22 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3682,22 +3797,22 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -3707,15 +3822,20 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -3729,12 +3849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3744,52 +3864,52 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3799,12 +3919,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -3819,7 +3939,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -3829,7 +3949,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -3844,15 +3964,20 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,135 +441,140 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250629</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -633,27 +638,27 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -673,7 +678,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -688,7 +693,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -703,15 +708,20 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -725,42 +735,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -775,12 +785,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -800,7 +810,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -815,7 +825,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -825,12 +835,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -845,15 +855,20 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -877,7 +892,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -887,27 +902,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -917,12 +932,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -942,22 +957,22 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -982,20 +997,25 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1009,12 +1029,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1034,22 +1054,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1059,7 +1079,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1069,7 +1089,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1079,7 +1099,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1089,7 +1109,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1099,7 +1119,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1109,7 +1129,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1129,15 +1149,20 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1161,12 +1186,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1186,7 +1211,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1196,7 +1221,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1231,7 +1256,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1251,7 +1276,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1261,25 +1286,30 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1298,7 +1328,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1308,12 +1338,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1328,17 +1358,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1348,7 +1378,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1388,12 +1418,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1403,25 +1433,30 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1435,7 +1470,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1470,12 +1505,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1495,7 +1530,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1505,17 +1540,17 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1540,30 +1575,35 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1582,7 +1622,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1592,7 +1632,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1602,7 +1642,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1612,17 +1652,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1632,12 +1672,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1657,7 +1697,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1672,7 +1712,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1692,20 +1732,25 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1719,17 +1764,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1754,7 +1799,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1764,7 +1809,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1774,7 +1819,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1784,7 +1829,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1809,22 +1854,22 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1834,20 +1879,25 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1866,7 +1916,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1876,7 +1926,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1886,12 +1936,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1901,12 +1951,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1926,12 +1976,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1941,22 +1991,22 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1981,15 +2031,20 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2018,12 +2073,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2048,12 +2103,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2078,17 +2133,17 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2098,12 +2153,12 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2113,7 +2168,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2123,15 +2178,20 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2145,42 +2205,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2195,22 +2255,22 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2245,7 +2305,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2265,15 +2325,20 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2287,12 +2352,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2307,12 +2372,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2342,12 +2407,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2367,7 +2432,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2382,7 +2447,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -2402,20 +2467,25 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2439,17 +2509,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2469,7 +2539,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2479,17 +2549,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2499,7 +2569,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2534,12 +2604,12 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2549,15 +2619,20 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2571,12 +2646,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2626,7 +2701,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2641,17 +2716,17 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2661,12 +2736,12 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -2676,12 +2751,12 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2691,15 +2766,20 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -2738,12 +2818,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2758,12 +2838,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2778,7 +2858,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2788,27 +2868,27 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -2828,20 +2908,25 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -2890,12 +2975,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2920,22 +3005,22 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2955,12 +3040,12 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -2975,15 +3060,20 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -2997,7 +3087,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3007,7 +3097,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3017,17 +3107,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3047,7 +3137,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3062,17 +3152,17 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -3082,7 +3172,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -3092,7 +3182,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -3107,7 +3197,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3117,15 +3207,20 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -3194,12 +3289,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3254,20 +3349,25 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -3291,7 +3391,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3306,12 +3406,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3326,7 +3426,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3336,7 +3436,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3346,32 +3446,32 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -3401,15 +3501,20 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -3428,12 +3533,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3488,7 +3593,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3498,7 +3603,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -3518,12 +3623,12 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -3533,25 +3638,30 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -3575,7 +3685,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3585,12 +3695,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3610,7 +3720,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3620,7 +3730,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3630,27 +3740,27 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -3660,22 +3770,22 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3685,15 +3795,20 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -3717,12 +3832,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3747,22 +3862,22 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3777,22 +3892,22 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -3802,22 +3917,22 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3827,15 +3942,20 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -3854,12 +3974,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3869,52 +3989,52 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3924,12 +4044,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3944,7 +4064,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -3954,7 +4074,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -3969,15 +4089,20 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,140 +441,145 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250701</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -643,27 +648,27 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -683,7 +688,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -698,7 +703,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -713,15 +718,20 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -740,42 +750,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -790,12 +800,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -815,7 +825,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -830,7 +840,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -840,12 +850,12 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -860,15 +870,20 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -897,7 +912,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -907,27 +922,27 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -937,12 +952,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -962,22 +977,22 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1002,20 +1017,25 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1034,12 +1054,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1059,22 +1079,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1084,7 +1104,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1094,7 +1114,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1104,7 +1124,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1114,7 +1134,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1124,7 +1144,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1134,7 +1154,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1154,15 +1174,20 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1191,12 +1216,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1216,7 +1241,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1226,7 +1251,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1261,7 +1286,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1281,7 +1306,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1291,25 +1316,30 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1333,7 +1363,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1343,12 +1373,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1363,17 +1393,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1383,7 +1413,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1423,12 +1453,12 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1438,25 +1468,30 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1470,12 +1505,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1510,12 +1545,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1535,7 +1570,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1545,17 +1580,17 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1580,30 +1615,35 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1627,7 +1667,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1637,7 +1677,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1647,7 +1687,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1657,17 +1697,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1677,12 +1717,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1702,7 +1742,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1717,7 +1757,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1737,20 +1777,25 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1764,22 +1809,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1804,7 +1849,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1814,7 +1859,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1824,7 +1869,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1834,7 +1879,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1859,22 +1904,22 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1884,20 +1929,25 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1921,7 +1971,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1931,7 +1981,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1941,12 +1991,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1956,12 +2006,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1981,12 +2031,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1996,22 +2046,22 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2036,15 +2086,20 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2058,7 +2113,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2078,12 +2133,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2108,12 +2163,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2138,17 +2193,17 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2158,12 +2213,12 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2173,7 +2228,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2183,15 +2238,20 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2210,42 +2270,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2260,22 +2320,22 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2310,7 +2370,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2330,15 +2390,20 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2357,12 +2422,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2377,12 +2442,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2412,12 +2477,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2437,7 +2502,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2452,7 +2517,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2472,20 +2537,25 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2514,17 +2584,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2544,7 +2614,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2554,17 +2624,17 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2574,7 +2644,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2609,12 +2679,12 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2624,15 +2694,20 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2646,17 +2721,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2706,7 +2781,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2721,17 +2796,17 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2741,12 +2816,12 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -2756,12 +2831,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2771,15 +2846,20 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -2823,12 +2903,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2843,12 +2923,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2863,7 +2943,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2873,27 +2953,27 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2913,20 +2993,25 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -2980,12 +3065,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3010,22 +3095,22 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -3045,12 +3130,12 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3065,15 +3150,20 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -3087,12 +3177,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3102,7 +3192,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3112,17 +3202,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3142,7 +3232,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3157,17 +3247,17 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -3177,7 +3267,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3187,7 +3277,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -3202,7 +3292,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3212,15 +3302,20 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -3234,7 +3329,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3294,12 +3389,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -3354,20 +3449,25 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -3381,7 +3481,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3396,7 +3496,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3411,12 +3511,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3431,7 +3531,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -3441,7 +3541,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3451,32 +3551,32 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -3506,15 +3606,20 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -3538,12 +3643,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3598,7 +3703,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3608,7 +3713,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -3628,12 +3733,12 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -3643,25 +3748,30 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -3690,7 +3800,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3700,12 +3810,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3725,7 +3835,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -3735,7 +3845,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3745,27 +3855,27 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -3775,22 +3885,22 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3800,15 +3910,20 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -3822,7 +3937,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3837,12 +3952,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -3867,22 +3982,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3897,22 +4012,22 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -3922,22 +4037,22 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3947,15 +4062,20 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -3979,12 +4099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3994,52 +4114,52 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -4049,12 +4169,12 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -4069,7 +4189,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -4079,7 +4199,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -4094,15 +4214,20 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,145 +441,150 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250703</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -653,27 +658,27 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -693,7 +698,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -708,7 +713,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -723,15 +728,20 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -755,42 +765,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -805,12 +815,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -830,7 +840,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -845,7 +855,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -855,12 +865,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -875,15 +885,20 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -897,7 +912,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -917,7 +932,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -927,27 +942,27 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -957,12 +972,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -982,22 +997,22 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1022,20 +1037,25 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1059,12 +1079,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1084,22 +1104,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1109,7 +1129,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1119,7 +1139,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1129,7 +1149,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1139,7 +1159,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1149,7 +1169,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1159,7 +1179,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1179,15 +1199,20 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1221,12 +1246,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1246,7 +1271,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1256,7 +1281,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1291,7 +1316,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1311,7 +1336,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1321,25 +1346,30 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1368,7 +1398,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1378,12 +1408,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1398,17 +1428,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1418,7 +1448,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1458,12 +1488,12 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1473,25 +1503,30 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1510,12 +1545,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1550,12 +1585,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1575,7 +1610,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1585,17 +1620,17 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1620,30 +1655,35 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1672,7 +1712,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1682,7 +1722,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1692,7 +1732,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1702,17 +1742,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1722,12 +1762,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1747,7 +1787,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1762,7 +1802,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1782,20 +1822,25 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1814,22 +1859,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1854,7 +1899,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1864,7 +1909,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1874,7 +1919,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1884,7 +1929,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1909,22 +1954,22 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1934,20 +1979,25 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -1976,7 +2026,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1986,7 +2036,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1996,12 +2046,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2011,12 +2061,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2036,12 +2086,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2051,22 +2101,22 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2091,15 +2141,20 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2113,12 +2168,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2138,12 +2193,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2168,12 +2223,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2198,17 +2253,17 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -2218,12 +2273,12 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2233,7 +2288,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2243,15 +2298,20 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2275,42 +2335,42 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2325,22 +2385,22 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2375,7 +2435,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2395,15 +2455,20 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2427,12 +2492,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2447,12 +2512,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2482,12 +2547,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2507,7 +2572,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2522,7 +2587,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2542,20 +2607,25 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2589,17 +2659,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2619,7 +2689,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2629,17 +2699,17 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2649,7 +2719,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2684,12 +2754,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2699,15 +2769,20 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2721,22 +2796,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2786,7 +2861,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2801,17 +2876,17 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2821,12 +2896,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2836,12 +2911,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2851,15 +2926,20 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -2908,12 +2988,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2928,12 +3008,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2948,7 +3028,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2958,27 +3038,27 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -2998,20 +3078,25 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -3070,12 +3155,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3100,22 +3185,22 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3135,12 +3220,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -3155,15 +3240,20 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -3182,12 +3272,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3197,7 +3287,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3207,17 +3297,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3237,7 +3327,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -3252,17 +3342,17 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -3272,7 +3362,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -3282,7 +3372,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -3297,7 +3387,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3307,15 +3397,20 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -3334,7 +3429,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3394,12 +3489,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3454,20 +3549,25 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -3486,7 +3586,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3501,7 +3601,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3516,12 +3616,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3536,7 +3636,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3546,7 +3646,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3556,32 +3656,32 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -3611,15 +3711,20 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -3648,12 +3753,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3708,7 +3813,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -3718,7 +3823,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -3738,12 +3843,12 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3753,25 +3858,30 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -3805,7 +3915,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3815,12 +3925,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3840,7 +3950,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3850,7 +3960,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3860,27 +3970,27 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -3890,22 +4000,22 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3915,15 +4025,20 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -3937,12 +4052,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3957,12 +4072,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3987,22 +4102,22 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -4017,22 +4132,22 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -4042,22 +4157,22 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -4067,15 +4182,20 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -4104,12 +4224,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4119,52 +4239,52 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -4174,12 +4294,12 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -4194,7 +4314,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -4204,7 +4324,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -4219,15 +4339,20 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,150 +441,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250706</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -598,7 +603,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -663,27 +668,27 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -703,7 +708,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -718,7 +723,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -733,15 +738,20 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -770,42 +780,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -820,12 +830,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -845,7 +855,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -860,7 +870,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -870,12 +880,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -890,15 +900,20 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -912,12 +927,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -937,7 +952,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -947,27 +962,27 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -977,12 +992,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1002,22 +1017,22 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1042,20 +1057,25 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1069,7 +1089,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1084,12 +1104,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1109,22 +1129,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1134,7 +1154,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1144,7 +1164,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1154,7 +1174,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1164,7 +1184,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1174,7 +1194,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1184,7 +1204,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1204,15 +1224,20 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1251,12 +1276,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1276,7 +1301,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1286,7 +1311,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1321,7 +1346,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1341,7 +1366,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1351,25 +1376,30 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1383,7 +1413,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1403,7 +1433,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1413,12 +1443,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1433,17 +1463,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1453,7 +1483,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1493,12 +1523,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1508,25 +1538,30 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1550,12 +1585,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1590,12 +1625,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1615,7 +1650,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1625,17 +1660,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1660,30 +1695,35 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1717,7 +1757,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1727,7 +1767,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1737,7 +1777,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1747,17 +1787,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1767,12 +1807,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1792,7 +1832,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1807,7 +1847,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1827,20 +1867,25 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1864,22 +1909,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1904,7 +1949,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1914,7 +1959,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1924,7 +1969,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1934,7 +1979,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1959,22 +2004,22 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1984,20 +2029,25 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2031,7 +2081,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2041,7 +2091,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2051,12 +2101,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2066,12 +2116,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2091,12 +2141,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2106,22 +2156,22 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2146,15 +2196,20 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2173,12 +2228,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2198,12 +2253,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2228,12 +2283,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2258,17 +2313,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2278,12 +2333,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2293,7 +2348,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2303,15 +2358,20 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2325,7 +2385,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2340,42 +2400,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2390,22 +2450,22 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2440,7 +2500,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2460,15 +2520,20 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2497,12 +2562,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2517,12 +2582,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2552,12 +2617,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2577,7 +2642,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -2592,7 +2657,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2612,20 +2677,25 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2639,7 +2709,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2664,17 +2734,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2694,7 +2764,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2704,17 +2774,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2724,7 +2794,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2759,12 +2829,12 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2774,15 +2844,20 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2801,22 +2876,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2866,7 +2941,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2881,17 +2956,17 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -2901,12 +2976,12 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2916,12 +2991,12 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2931,15 +3006,20 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -2993,12 +3073,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3013,12 +3093,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3033,7 +3113,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -3043,27 +3123,27 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3083,20 +3163,25 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -3160,12 +3245,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3190,22 +3275,22 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3225,12 +3310,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -3245,15 +3330,20 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -3277,12 +3367,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3292,7 +3382,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3302,17 +3392,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3332,7 +3422,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -3347,17 +3437,17 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3367,7 +3457,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -3377,7 +3467,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3392,7 +3482,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -3402,15 +3492,20 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -3424,7 +3519,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3434,7 +3529,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3494,12 +3589,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -3554,20 +3649,25 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -3591,7 +3691,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3606,7 +3706,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3621,12 +3721,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3641,7 +3741,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3651,7 +3751,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3661,32 +3761,32 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -3716,15 +3816,20 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -3758,12 +3863,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3818,7 +3923,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -3828,7 +3933,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -3848,12 +3953,12 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3863,25 +3968,30 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -3920,7 +4030,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3930,12 +4040,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3955,7 +4065,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3965,7 +4075,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3975,27 +4085,27 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -4005,22 +4115,22 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -4030,15 +4140,20 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -4052,17 +4167,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4077,12 +4192,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4107,22 +4222,22 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4137,22 +4252,22 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -4162,22 +4277,22 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -4187,15 +4302,20 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -4229,12 +4349,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4244,52 +4364,52 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -4299,12 +4419,12 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -4319,7 +4439,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -4329,7 +4449,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -4344,15 +4464,20 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,155 +441,160 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250708</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -603,12 +608,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -673,27 +678,27 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -713,7 +718,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -728,7 +733,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -743,15 +748,20 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -785,42 +795,42 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -835,12 +845,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -860,7 +870,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -875,7 +885,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -885,12 +895,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -905,15 +915,20 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -927,17 +942,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -957,7 +972,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -967,27 +982,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -997,12 +1012,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1022,22 +1037,22 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1062,20 +1077,25 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1094,7 +1114,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1109,12 +1129,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1134,22 +1154,22 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1159,7 +1179,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1169,7 +1189,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1179,7 +1199,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1189,7 +1209,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1199,7 +1219,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1209,7 +1229,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1229,15 +1249,20 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1281,12 +1306,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1306,7 +1331,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1316,7 +1341,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1351,7 +1376,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1371,7 +1396,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1381,25 +1406,30 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1413,12 +1443,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1438,7 +1468,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1448,12 +1478,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1468,17 +1498,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1488,7 +1518,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1528,12 +1558,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1543,25 +1573,30 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1590,12 +1625,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1630,12 +1665,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1655,7 +1690,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1665,17 +1700,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1700,30 +1735,35 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1737,7 +1777,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1762,7 +1802,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1772,7 +1812,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1782,7 +1822,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1792,17 +1832,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1812,12 +1852,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1837,7 +1877,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1852,7 +1892,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1872,20 +1912,25 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1914,22 +1959,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1954,7 +1999,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1964,7 +2009,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1974,7 +2019,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1984,7 +2029,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2009,22 +2054,22 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2034,20 +2079,25 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2061,7 +2111,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2086,7 +2136,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2096,7 +2146,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2106,12 +2156,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2121,12 +2171,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2146,12 +2196,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2161,22 +2211,22 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2201,15 +2251,20 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2223,7 +2278,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2233,12 +2288,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2258,12 +2313,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2288,12 +2343,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2318,17 +2373,17 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2338,12 +2393,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2353,7 +2408,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2363,15 +2418,20 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2385,12 +2445,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2405,42 +2465,42 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2455,22 +2515,22 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2505,7 +2565,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2525,15 +2585,20 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2567,12 +2632,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2587,12 +2652,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2622,12 +2687,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2647,7 +2712,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2662,7 +2727,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2682,20 +2747,25 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2709,12 +2779,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2739,17 +2809,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2769,7 +2839,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2779,17 +2849,17 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2799,7 +2869,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2834,12 +2904,12 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2849,15 +2919,20 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2881,22 +2956,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2946,7 +3021,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2961,17 +3036,17 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -2981,12 +3056,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2996,12 +3071,12 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -3011,15 +3086,20 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -3033,7 +3113,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3078,12 +3158,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3098,12 +3178,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3118,7 +3198,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -3128,27 +3208,27 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -3168,20 +3248,25 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -3250,12 +3335,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3280,22 +3365,22 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -3315,12 +3400,12 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -3335,15 +3420,20 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -3372,12 +3462,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3387,7 +3477,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3397,17 +3487,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3427,7 +3517,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3442,17 +3532,17 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -3462,7 +3552,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -3472,7 +3562,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3487,7 +3577,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3497,15 +3587,20 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -3524,7 +3619,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3534,7 +3629,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3594,12 +3689,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3654,20 +3749,25 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -3696,7 +3796,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3711,7 +3811,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3726,12 +3826,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -3746,7 +3846,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3756,7 +3856,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -3766,32 +3866,32 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3821,15 +3921,20 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -3868,12 +3973,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3928,7 +4033,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -3938,7 +4043,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -3958,12 +4063,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3973,25 +4078,30 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -4035,7 +4145,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4045,12 +4155,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -4070,7 +4180,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -4080,7 +4190,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4090,27 +4200,27 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -4120,22 +4230,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -4145,15 +4255,20 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -4167,22 +4282,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4197,12 +4312,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4227,22 +4342,22 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -4257,22 +4372,22 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -4282,22 +4397,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -4307,15 +4422,20 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -4329,7 +4449,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4354,12 +4474,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4369,52 +4489,52 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -4424,12 +4544,12 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -4444,7 +4564,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -4454,7 +4574,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -4469,15 +4589,20 @@
       </c>
       <c r="AD25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,160 +441,165 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250710</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250708</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -613,12 +618,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,27 +688,27 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -723,7 +728,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -738,7 +743,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -753,15 +758,20 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -800,42 +810,42 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -850,12 +860,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -875,7 +885,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -890,7 +900,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -900,12 +910,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -920,15 +930,20 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -947,17 +962,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -977,7 +992,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -987,27 +1002,27 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1017,12 +1032,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1042,22 +1057,22 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1082,20 +1097,25 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1109,7 +1129,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1119,7 +1139,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1134,12 +1154,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1159,22 +1179,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1184,7 +1204,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1194,7 +1214,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1204,7 +1224,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1214,7 +1234,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1224,7 +1244,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1234,7 +1254,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1254,15 +1274,20 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1276,7 +1301,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1311,12 +1336,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1336,7 +1361,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1346,7 +1371,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1381,7 +1406,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1401,7 +1426,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1411,25 +1436,30 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1443,17 +1473,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1473,7 +1503,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1483,12 +1513,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1503,17 +1533,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1523,7 +1553,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1563,12 +1593,12 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1578,25 +1608,30 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1630,12 +1665,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1670,12 +1705,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1695,7 +1730,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1705,17 +1740,17 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1740,30 +1775,35 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1777,12 +1817,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1807,7 +1847,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1817,7 +1857,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1827,7 +1867,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1837,17 +1877,17 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1857,12 +1897,12 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1882,7 +1922,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1897,7 +1937,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1917,20 +1957,25 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1964,22 +2009,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2004,7 +2049,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2014,7 +2059,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2024,7 +2069,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2034,7 +2079,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2059,22 +2104,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2084,20 +2129,25 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2111,12 +2161,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2141,7 +2191,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2151,7 +2201,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2161,12 +2211,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2176,12 +2226,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2201,12 +2251,12 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -2216,22 +2266,22 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2256,15 +2306,20 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2278,12 +2333,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2293,12 +2348,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2318,12 +2373,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2348,12 +2403,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2378,17 +2433,17 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2398,12 +2453,12 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2413,7 +2468,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2423,15 +2478,20 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2445,17 +2505,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2470,42 +2530,42 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2520,22 +2580,22 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2570,7 +2630,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2590,15 +2650,20 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2637,12 +2702,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2657,12 +2722,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2692,12 +2757,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2717,7 +2782,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2732,7 +2797,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2752,20 +2817,25 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2784,12 +2854,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2814,17 +2884,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2844,7 +2914,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2854,17 +2924,17 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2874,7 +2944,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -2909,12 +2979,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -2924,15 +2994,20 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -2961,22 +3036,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3026,7 +3101,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -3041,17 +3116,17 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -3061,12 +3136,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -3076,12 +3151,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -3091,15 +3166,20 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -3118,7 +3198,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3163,12 +3243,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3183,12 +3263,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -3203,7 +3283,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -3213,27 +3293,27 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -3253,20 +3333,25 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -3340,12 +3425,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -3370,22 +3455,22 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -3405,12 +3490,12 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3425,15 +3510,20 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -3467,12 +3557,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3482,7 +3572,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3492,17 +3582,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3522,7 +3612,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -3537,17 +3627,17 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -3557,7 +3647,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3567,7 +3657,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3582,7 +3672,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -3592,15 +3682,20 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -3614,7 +3709,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3624,7 +3719,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3634,7 +3729,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3694,12 +3789,12 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -3754,20 +3849,25 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AG20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -3801,7 +3901,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3816,7 +3916,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3831,12 +3931,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3851,7 +3951,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3861,7 +3961,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -3871,32 +3971,32 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3926,15 +4026,20 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AG21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -3948,7 +4053,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3978,12 +4083,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4038,7 +4143,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -4048,7 +4153,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -4068,12 +4173,12 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -4083,25 +4188,30 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AG22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -4150,7 +4260,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4160,12 +4270,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -4185,7 +4295,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4195,7 +4305,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -4205,27 +4315,27 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4235,22 +4345,22 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -4260,15 +4370,20 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AG23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -4287,22 +4402,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4317,12 +4432,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4347,22 +4462,22 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -4377,22 +4492,22 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -4402,22 +4517,22 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -4427,15 +4542,20 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AG24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -4454,7 +4574,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4479,12 +4599,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4494,52 +4614,52 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -4549,12 +4669,12 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -4569,7 +4689,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -4579,7 +4699,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -4594,15 +4714,20 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AG25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,165 +441,170 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250713</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250710</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250708</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -623,12 +628,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -693,27 +698,27 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -733,7 +738,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -748,7 +753,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -763,15 +768,20 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -815,42 +825,42 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -865,12 +875,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -890,7 +900,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -905,7 +915,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -915,12 +925,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -935,15 +945,20 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -967,17 +982,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -997,7 +1012,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1007,27 +1022,27 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1037,12 +1052,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1062,22 +1077,22 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1102,20 +1117,25 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1134,7 +1154,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1144,7 +1164,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1159,12 +1179,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1184,22 +1204,22 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1209,7 +1229,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1219,7 +1239,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1229,7 +1249,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1239,7 +1259,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1249,7 +1269,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1259,7 +1279,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1279,15 +1299,20 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1301,12 +1326,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1341,12 +1366,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1366,7 +1391,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1376,7 +1401,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1411,7 +1436,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1431,7 +1456,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1441,25 +1466,30 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1478,17 +1508,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1508,7 +1538,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1518,12 +1548,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1538,17 +1568,17 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1558,7 +1588,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1598,12 +1628,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1613,25 +1643,30 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1670,12 +1705,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1710,12 +1745,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1735,7 +1770,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1745,17 +1780,17 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1780,30 +1815,35 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1822,12 +1862,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1852,7 +1892,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1862,7 +1902,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1872,7 +1912,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1882,17 +1922,17 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1902,12 +1942,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1927,7 +1967,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1942,7 +1982,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1962,20 +2002,25 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -1989,7 +2034,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2014,22 +2059,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2054,7 +2099,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2064,7 +2109,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2074,7 +2119,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2084,7 +2129,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2109,22 +2154,22 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2134,20 +2179,25 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2166,12 +2216,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2196,7 +2246,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2206,7 +2256,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2216,12 +2266,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2231,12 +2281,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2256,12 +2306,12 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2271,22 +2321,22 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2311,15 +2361,20 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2338,12 +2393,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2353,12 +2408,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2378,12 +2433,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2408,12 +2463,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2438,17 +2493,17 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2458,12 +2513,12 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2473,7 +2528,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2483,15 +2538,20 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2505,22 +2565,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2535,42 +2595,42 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2585,22 +2645,22 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -2635,7 +2695,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2655,15 +2715,20 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2707,12 +2772,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2727,12 +2792,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2762,12 +2827,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2787,7 +2852,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2802,7 +2867,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2822,20 +2887,25 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AI14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2859,12 +2929,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2889,17 +2959,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2919,7 +2989,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2929,17 +2999,17 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2949,7 +3019,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2984,12 +3054,12 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -2999,15 +3069,20 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AI15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -3041,22 +3116,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3106,7 +3181,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3121,17 +3196,17 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -3141,12 +3216,12 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -3156,12 +3231,12 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -3171,15 +3246,20 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
+      <c r="AI16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -3193,7 +3273,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3203,7 +3283,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3248,12 +3328,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3268,12 +3348,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -3288,7 +3368,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -3298,27 +3378,27 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -3338,20 +3418,25 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
+      <c r="AI17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -3430,12 +3515,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3460,22 +3545,22 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3495,12 +3580,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -3515,15 +3600,20 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="AI18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -3562,12 +3652,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3577,7 +3667,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3587,17 +3677,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -3617,7 +3707,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -3632,17 +3722,17 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -3652,7 +3742,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3662,7 +3752,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -3677,7 +3767,7 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -3687,15 +3777,20 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AI19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -3709,12 +3804,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3724,7 +3819,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3734,7 +3829,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3794,12 +3889,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -3854,20 +3949,25 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AG20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AH20" t="inlineStr">
+      <c r="AI20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -3906,7 +4006,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3921,7 +4021,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3936,12 +4036,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3956,7 +4056,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -3966,7 +4066,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -3976,32 +4076,32 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -4031,15 +4131,20 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AG21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AH21" t="inlineStr">
+      <c r="AI21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -4053,12 +4158,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4088,12 +4193,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4148,7 +4253,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -4158,7 +4263,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -4178,12 +4283,12 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -4193,25 +4298,30 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AG22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
+      <c r="AI22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -4265,7 +4375,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4275,12 +4385,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4300,7 +4410,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4310,7 +4420,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -4320,27 +4430,27 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -4350,22 +4460,22 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
@@ -4375,15 +4485,20 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AG23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AH23" t="inlineStr">
+      <c r="AI23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -4407,22 +4522,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4437,12 +4552,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4467,22 +4582,22 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -4497,22 +4612,22 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -4522,22 +4637,22 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -4547,15 +4662,20 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AG24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AH24" t="inlineStr">
+      <c r="AI24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -4569,7 +4689,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4579,7 +4699,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4604,12 +4724,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4619,52 +4739,52 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -4674,12 +4794,12 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -4694,7 +4814,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -4704,7 +4824,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -4719,15 +4839,20 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AG25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AH25" t="inlineStr">
+      <c r="AI25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,170 +441,175 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250715</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250713</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250710</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250708</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -618,7 +623,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -633,12 +638,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -703,27 +708,27 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -743,7 +748,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -758,7 +763,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -773,15 +778,20 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -795,7 +805,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -830,42 +840,42 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -880,12 +890,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -905,7 +915,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -920,7 +930,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -930,12 +940,12 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -950,15 +960,20 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -972,7 +987,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -987,17 +1002,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1017,7 +1032,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1027,27 +1042,27 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1057,12 +1072,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1082,22 +1097,22 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1122,20 +1137,25 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1159,7 +1179,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1169,7 +1189,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1184,12 +1204,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1209,22 +1229,22 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1234,7 +1254,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1244,7 +1264,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1254,7 +1274,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1264,7 +1284,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1274,7 +1294,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1284,7 +1304,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1304,15 +1324,20 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1331,12 +1356,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1371,12 +1396,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1396,7 +1421,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1406,7 +1431,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1441,7 +1466,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1461,7 +1486,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1471,25 +1496,30 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1513,17 +1543,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1543,7 +1573,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1553,12 +1583,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1573,17 +1603,17 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1593,7 +1623,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1633,12 +1663,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1648,25 +1678,30 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1710,12 +1745,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1750,12 +1785,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1775,7 +1810,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1785,17 +1820,17 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1820,30 +1855,35 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1867,12 +1907,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1897,7 +1937,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1907,7 +1947,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1917,7 +1957,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1927,17 +1967,17 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1947,12 +1987,12 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1972,7 +2012,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1987,7 +2027,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2007,20 +2047,25 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -2034,12 +2079,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2064,22 +2109,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2104,7 +2149,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2114,7 +2159,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2124,7 +2169,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2134,7 +2179,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2159,22 +2204,22 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -2184,20 +2229,25 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2221,12 +2271,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2251,7 +2301,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2261,7 +2311,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2271,12 +2321,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2286,12 +2336,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2311,12 +2361,12 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2326,22 +2376,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2366,15 +2416,20 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2398,12 +2453,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2413,12 +2468,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2438,12 +2493,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2468,12 +2523,12 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2498,17 +2553,17 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2518,12 +2573,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2533,7 +2588,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2543,15 +2598,20 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2570,22 +2630,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2600,42 +2660,42 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2650,22 +2710,22 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2700,7 +2760,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2720,15 +2780,20 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2777,12 +2842,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2797,12 +2862,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2832,12 +2897,12 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -2857,7 +2922,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2872,7 +2937,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2892,20 +2957,25 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AI14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2934,12 +3004,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2964,17 +3034,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2994,7 +3064,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3004,17 +3074,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -3024,7 +3094,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3059,12 +3129,12 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -3074,15 +3144,20 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AI15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -3121,22 +3196,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3186,7 +3261,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -3201,17 +3276,17 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3221,12 +3296,12 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -3236,12 +3311,12 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -3251,15 +3326,20 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
+      <c r="AI16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -3273,12 +3353,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3288,7 +3368,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3333,12 +3413,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3353,12 +3433,12 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -3373,7 +3453,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -3383,27 +3463,27 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3423,20 +3503,25 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
+      <c r="AI17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -3520,12 +3605,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3550,22 +3635,22 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -3585,12 +3670,12 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -3605,15 +3690,20 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="AI18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -3657,12 +3747,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3672,7 +3762,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3682,17 +3772,17 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -3712,7 +3802,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -3727,17 +3817,17 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3747,7 +3837,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3757,7 +3847,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3772,7 +3862,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
@@ -3782,15 +3872,20 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AI19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -3809,12 +3904,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3824,7 +3919,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3834,7 +3929,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3894,12 +3989,12 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -3954,20 +4049,25 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AH20" t="inlineStr">
+      <c r="AI20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -4011,7 +4111,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -4026,7 +4126,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -4041,12 +4141,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -4061,7 +4161,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -4071,7 +4171,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -4081,32 +4181,32 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -4136,15 +4236,20 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AH21" t="inlineStr">
+      <c r="AI21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -4163,12 +4268,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4198,12 +4303,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -4258,7 +4363,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -4268,7 +4373,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -4288,12 +4393,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -4303,25 +4408,30 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
+      <c r="AI22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -4380,7 +4490,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -4390,12 +4500,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4415,7 +4525,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -4425,7 +4535,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -4435,27 +4545,27 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -4465,22 +4575,22 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4490,15 +4600,20 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AH23" t="inlineStr">
+      <c r="AI23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -4527,22 +4642,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4557,12 +4672,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4587,22 +4702,22 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -4617,22 +4732,22 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -4642,22 +4757,22 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -4667,15 +4782,20 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AH24" t="inlineStr">
+      <c r="AI24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr">
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -4689,12 +4809,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4704,7 +4824,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4729,12 +4849,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -4744,52 +4864,52 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -4799,12 +4919,12 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -4819,7 +4939,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -4829,7 +4949,7 @@
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
@@ -4844,15 +4964,20 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AH25" t="inlineStr">
+      <c r="AI25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr">
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,175 +441,180 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250717</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250715</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250713</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250710</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250708</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -623,12 +628,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -643,12 +648,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -713,27 +718,27 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -753,7 +758,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -768,7 +773,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -783,15 +788,20 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -805,12 +815,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -845,42 +855,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -895,12 +905,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -920,7 +930,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -935,7 +945,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -945,12 +955,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -965,15 +975,20 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -992,7 +1007,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1007,17 +1022,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1037,7 +1052,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1047,27 +1062,27 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1077,12 +1092,12 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1102,22 +1117,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1142,20 +1157,25 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1184,7 +1204,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1194,7 +1214,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1209,12 +1229,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1234,22 +1254,22 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1259,7 +1279,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1269,7 +1289,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1279,7 +1299,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1289,7 +1309,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1299,7 +1319,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1309,7 +1329,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1329,15 +1349,20 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1361,12 +1386,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1401,12 +1426,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1426,7 +1451,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1436,7 +1461,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1471,7 +1496,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1491,7 +1516,7 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1501,25 +1526,30 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1533,7 +1563,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1548,17 +1578,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1578,7 +1608,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1588,12 +1618,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1608,17 +1638,17 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1628,7 +1658,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1668,12 +1698,12 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1683,25 +1713,30 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1750,12 +1785,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1790,12 +1825,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1815,7 +1850,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1825,17 +1860,17 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1860,30 +1895,35 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1912,12 +1952,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1942,7 +1982,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1952,7 +1992,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1962,7 +2002,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1972,17 +2012,17 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1992,12 +2032,12 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2017,7 +2057,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2032,7 +2072,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2052,20 +2092,25 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -2084,12 +2129,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2114,22 +2159,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2154,7 +2199,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2164,7 +2209,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2174,7 +2219,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2184,7 +2229,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2209,22 +2254,22 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2234,20 +2279,25 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2276,12 +2326,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2306,7 +2356,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2316,7 +2366,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2326,12 +2376,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2341,12 +2391,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2366,12 +2416,12 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2381,22 +2431,22 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2421,15 +2471,20 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2458,12 +2513,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2473,12 +2528,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2498,12 +2553,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2528,12 +2583,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2558,17 +2613,17 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2578,12 +2633,12 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2593,7 +2648,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2603,15 +2658,20 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2635,22 +2695,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2665,42 +2725,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2715,22 +2775,22 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2765,7 +2825,7 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2785,15 +2845,20 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2847,12 +2912,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2867,12 +2932,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2902,12 +2967,12 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2927,7 +2992,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2942,7 +3007,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -2962,20 +3027,25 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -2989,7 +3059,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3009,12 +3079,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3039,17 +3109,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3069,7 +3139,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3079,17 +3149,17 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3099,7 +3169,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3134,12 +3204,12 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3149,15 +3219,20 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -3201,22 +3276,22 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -3266,7 +3341,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -3281,17 +3356,17 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -3301,12 +3376,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -3316,12 +3391,12 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3331,15 +3406,20 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -3358,12 +3438,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3373,7 +3453,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3418,12 +3498,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3438,12 +3518,12 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -3458,7 +3538,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -3468,27 +3548,27 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -3508,20 +3588,25 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -3535,7 +3620,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3610,12 +3695,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -3640,22 +3725,22 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -3675,12 +3760,12 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -3695,15 +3780,20 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -3752,12 +3842,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3767,7 +3857,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3777,17 +3867,17 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3807,7 +3897,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3822,17 +3912,17 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3842,7 +3932,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -3852,7 +3942,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -3867,7 +3957,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3877,15 +3967,20 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -3909,12 +4004,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3924,7 +4019,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3934,7 +4029,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3994,12 +4089,12 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -4054,20 +4149,25 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -4116,7 +4216,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -4131,7 +4231,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4146,12 +4246,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4166,7 +4266,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -4176,7 +4276,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -4186,32 +4286,32 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -4241,15 +4341,20 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -4273,12 +4378,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4308,12 +4413,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -4368,7 +4473,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -4378,7 +4483,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -4398,12 +4503,12 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
@@ -4413,25 +4518,30 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -4445,7 +4555,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4495,7 +4605,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -4505,12 +4615,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -4530,7 +4640,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -4540,7 +4650,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -4550,27 +4660,27 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -4580,22 +4690,22 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -4605,15 +4715,20 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -4647,22 +4762,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4677,12 +4792,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4707,22 +4822,22 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -4737,22 +4852,22 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -4762,22 +4877,22 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -4787,15 +4902,20 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr">
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -4809,17 +4929,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4829,7 +4949,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4854,12 +4974,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -4869,52 +4989,52 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -4924,12 +5044,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -4944,7 +5064,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -4954,7 +5074,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -4969,15 +5089,20 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr">
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,180 +441,185 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250720</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250717</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250715</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250713</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250710</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250708</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -633,12 +638,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -653,12 +658,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,27 +728,27 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,7 +768,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -778,7 +783,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -793,15 +798,20 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -820,12 +830,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -860,42 +870,42 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -910,12 +920,12 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -935,7 +945,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -950,7 +960,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -960,12 +970,12 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -980,15 +990,20 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -1012,7 +1027,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1027,17 +1042,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1057,7 +1072,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1067,27 +1082,27 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1097,12 +1112,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1122,22 +1137,22 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1162,20 +1177,25 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1189,7 +1209,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1209,7 +1229,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1219,7 +1239,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1234,12 +1254,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1259,22 +1279,22 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1284,7 +1304,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1294,7 +1314,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1304,7 +1324,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1314,7 +1334,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1324,7 +1344,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1334,7 +1354,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1354,15 +1374,20 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1391,12 +1416,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1431,12 +1456,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1456,7 +1481,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1466,7 +1491,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1501,7 +1526,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1521,7 +1546,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1531,25 +1556,30 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1563,12 +1593,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1583,17 +1613,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1613,7 +1643,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1623,12 +1653,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1643,17 +1673,17 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1663,7 +1693,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1703,12 +1733,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1718,25 +1748,30 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1790,12 +1825,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1830,12 +1865,12 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1855,7 +1890,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1865,17 +1900,17 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1900,30 +1935,35 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -1957,12 +1997,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1987,7 +2027,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1997,7 +2037,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2007,7 +2047,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2017,17 +2057,17 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2037,12 +2077,12 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2062,7 +2102,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2077,7 +2117,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -2097,20 +2137,25 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -2134,12 +2179,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2164,22 +2209,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2204,7 +2249,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2214,7 +2259,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2224,7 +2269,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2234,7 +2279,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2259,22 +2304,22 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2284,20 +2329,25 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2331,12 +2381,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2361,7 +2411,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2371,7 +2421,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2381,12 +2431,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2396,12 +2446,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2421,12 +2471,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2436,22 +2486,22 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2476,15 +2526,20 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2498,7 +2553,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2518,12 +2573,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2533,12 +2588,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2558,12 +2613,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2588,12 +2643,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -2618,17 +2673,17 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2638,12 +2693,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2653,7 +2708,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -2663,15 +2718,20 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2700,22 +2760,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2730,42 +2790,42 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2780,22 +2840,22 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2830,7 +2890,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -2850,15 +2910,20 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2917,12 +2982,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2937,12 +3002,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2972,12 +3037,12 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2997,7 +3062,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -3012,7 +3077,7 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -3032,20 +3097,25 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -3059,12 +3129,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3084,12 +3154,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3114,17 +3184,17 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3144,7 +3214,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -3154,17 +3224,17 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3174,7 +3244,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3209,12 +3279,12 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3224,15 +3294,20 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -3281,22 +3356,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3346,7 +3421,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -3361,17 +3436,17 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -3381,12 +3456,12 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -3396,12 +3471,12 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3411,15 +3486,20 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -3433,7 +3513,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3443,12 +3523,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3458,7 +3538,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3503,12 +3583,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -3523,12 +3603,12 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -3543,7 +3623,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3553,27 +3633,27 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
@@ -3593,20 +3673,25 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -3625,7 +3710,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3700,12 +3785,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -3730,22 +3815,22 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -3765,12 +3850,12 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3785,15 +3870,20 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -3807,7 +3897,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3847,12 +3937,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3862,7 +3952,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3872,17 +3962,17 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -3902,7 +3992,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -3917,17 +4007,17 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3937,7 +4027,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3947,7 +4037,7 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -3962,7 +4052,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -3972,15 +4062,20 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -3994,7 +4089,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4009,12 +4104,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4024,7 +4119,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4034,7 +4129,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4094,12 +4189,12 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -4154,20 +4249,25 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AK20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -4221,7 +4321,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4236,7 +4336,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4251,12 +4351,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -4271,7 +4371,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -4281,7 +4381,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -4291,32 +4391,32 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -4346,15 +4446,20 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -4383,12 +4488,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4418,12 +4523,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4478,7 +4583,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -4488,7 +4593,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -4508,12 +4613,12 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -4523,25 +4628,30 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AK22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -4555,12 +4665,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4610,7 +4720,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4620,12 +4730,12 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4645,7 +4755,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -4655,7 +4765,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -4665,27 +4775,27 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -4695,22 +4805,22 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -4720,15 +4830,20 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AL23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -4767,22 +4882,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4797,12 +4912,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -4827,22 +4942,22 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -4857,22 +4972,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -4882,22 +4997,22 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -4907,15 +5022,20 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AK24" t="inlineStr">
+      <c r="AL24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -4934,17 +5054,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4954,7 +5074,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4979,12 +5099,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -4994,52 +5114,52 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -5049,12 +5169,12 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -5069,7 +5189,7 @@
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
@@ -5079,7 +5199,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -5094,15 +5214,20 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AK25" t="inlineStr">
+      <c r="AL25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,185 +441,190 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250722</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250720</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250717</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250715</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250713</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250710</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250708</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -643,12 +648,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -663,12 +668,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -733,27 +738,27 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -773,7 +778,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -788,7 +793,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -803,15 +808,20 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -825,7 +835,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -835,12 +845,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -875,42 +885,42 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -925,12 +935,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -950,7 +960,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -965,7 +975,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -975,12 +985,12 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -995,15 +1005,20 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -1032,7 +1047,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1047,17 +1062,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1077,7 +1092,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1087,27 +1102,27 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1117,12 +1132,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1142,22 +1157,22 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1182,20 +1197,25 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1209,12 +1229,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1234,7 +1254,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1244,7 +1264,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1259,12 +1279,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1284,22 +1304,22 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1309,7 +1329,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1319,7 +1339,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1329,7 +1349,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1339,7 +1359,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1349,7 +1369,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1359,7 +1379,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1379,15 +1399,20 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1421,12 +1446,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1461,12 +1486,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1486,7 +1511,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1496,7 +1521,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1531,7 +1556,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1551,7 +1576,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1561,25 +1586,30 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1598,12 +1628,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1618,17 +1648,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1648,7 +1678,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1658,12 +1688,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1678,17 +1708,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1698,7 +1728,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1738,12 +1768,12 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1753,25 +1783,30 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1830,12 +1865,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1870,12 +1905,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1895,7 +1930,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1905,17 +1940,17 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1940,30 +1975,35 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -2002,12 +2042,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2032,7 +2072,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2042,7 +2082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2052,7 +2092,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2062,17 +2102,17 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -2082,12 +2122,12 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2107,7 +2147,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2122,7 +2162,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2142,20 +2182,25 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -2169,7 +2214,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2184,12 +2229,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2214,22 +2259,22 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2254,7 +2299,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2264,7 +2309,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2274,7 +2319,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2284,7 +2329,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2309,22 +2354,22 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2334,20 +2379,25 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2386,12 +2436,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2416,7 +2466,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2426,7 +2476,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2436,12 +2486,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2451,12 +2501,12 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -2476,12 +2526,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2491,22 +2541,22 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2531,15 +2581,20 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2558,7 +2613,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2578,12 +2633,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2593,12 +2648,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2618,12 +2673,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2648,12 +2703,12 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2678,17 +2733,17 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2698,12 +2753,12 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2713,7 +2768,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2723,15 +2778,20 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2745,7 +2805,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2765,22 +2825,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2795,42 +2855,42 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2845,22 +2905,22 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2895,7 +2955,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2915,15 +2975,20 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -2937,7 +3002,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2987,12 +3052,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3007,12 +3072,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3042,12 +3107,12 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -3067,7 +3132,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3082,7 +3147,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -3102,20 +3167,25 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -3129,17 +3199,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3159,12 +3229,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3189,17 +3259,17 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3219,7 +3289,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -3229,17 +3299,17 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3249,7 +3319,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -3284,12 +3354,12 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -3299,15 +3369,20 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -3361,22 +3436,22 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3426,7 +3501,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -3441,17 +3516,17 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -3461,12 +3536,12 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -3476,12 +3551,12 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -3491,15 +3566,20 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -3518,7 +3598,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3528,12 +3608,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3543,7 +3623,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3588,12 +3668,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -3608,12 +3688,12 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -3628,7 +3708,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -3638,27 +3718,27 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -3678,20 +3758,25 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -3715,7 +3800,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3790,12 +3875,12 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3820,22 +3905,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3855,12 +3940,12 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -3875,15 +3960,20 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -3902,7 +3992,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3942,12 +4032,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3957,7 +4047,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -3967,17 +4057,17 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -3997,7 +4087,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -4012,17 +4102,17 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -4032,7 +4122,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -4042,7 +4132,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
@@ -4057,7 +4147,7 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -4067,15 +4157,20 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -4094,7 +4189,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4109,12 +4204,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4124,7 +4219,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4134,7 +4229,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -4194,12 +4289,12 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -4254,20 +4349,25 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AK20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AM20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -4281,7 +4381,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4326,7 +4426,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -4341,7 +4441,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -4356,12 +4456,12 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -4376,7 +4476,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -4386,7 +4486,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -4396,32 +4496,32 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
@@ -4451,15 +4551,20 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AM21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -4473,7 +4578,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4493,12 +4598,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4528,12 +4633,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -4588,7 +4693,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -4598,7 +4703,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -4618,12 +4723,12 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -4633,25 +4738,30 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AK22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AM22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -4670,12 +4780,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4725,7 +4835,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4735,12 +4845,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4760,7 +4870,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -4770,7 +4880,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -4780,27 +4890,27 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -4810,22 +4920,22 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
@@ -4835,15 +4945,20 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AL23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AM23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -4887,22 +5002,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4917,12 +5032,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -4947,22 +5062,22 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -4977,22 +5092,22 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -5002,22 +5117,22 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
@@ -5027,15 +5142,20 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AK24" t="inlineStr">
+      <c r="AL24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AM24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -5059,17 +5179,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5079,7 +5199,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5104,12 +5224,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -5119,52 +5239,52 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -5174,12 +5294,12 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -5194,7 +5314,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -5204,7 +5324,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -5219,15 +5339,20 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AK25" t="inlineStr">
+      <c r="AL25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AM25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,190 +441,195 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250724</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250722</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250720</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250717</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250715</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250713</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250710</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250708</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -638,7 +643,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -653,12 +658,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -673,12 +678,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -743,27 +748,27 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -783,7 +788,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -798,7 +803,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -813,15 +818,20 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -835,12 +845,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -850,12 +860,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -890,42 +900,42 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -940,12 +950,12 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -965,7 +975,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -980,7 +990,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -990,12 +1000,12 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1010,15 +1020,20 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -1052,7 +1067,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1067,17 +1082,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1097,7 +1112,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1107,27 +1122,27 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1137,12 +1152,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1162,22 +1177,22 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1202,20 +1217,25 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1229,17 +1249,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1259,7 +1279,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1269,7 +1289,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1284,12 +1304,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1309,22 +1329,22 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1334,7 +1354,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1344,7 +1364,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1354,7 +1374,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1364,7 +1384,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1374,7 +1394,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1384,7 +1404,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1404,15 +1424,20 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1451,12 +1476,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1491,12 +1516,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1516,7 +1541,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1526,7 +1551,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1561,7 +1586,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1581,7 +1606,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1591,25 +1616,30 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1623,7 +1653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1633,12 +1663,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1653,17 +1683,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1683,7 +1713,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1693,12 +1723,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1713,17 +1743,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1733,7 +1763,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1773,12 +1803,12 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1788,25 +1818,30 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1870,12 +1905,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1910,12 +1945,12 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1935,7 +1970,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1945,17 +1980,17 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1980,30 +2015,35 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -2047,12 +2087,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2077,7 +2117,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2087,7 +2127,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2097,7 +2137,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2107,17 +2147,17 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2127,12 +2167,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2152,7 +2192,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2167,7 +2207,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2187,20 +2227,25 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -2214,12 +2259,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2234,12 +2279,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2264,22 +2309,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2304,7 +2349,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2314,7 +2359,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2324,7 +2369,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2334,7 +2379,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2359,22 +2404,22 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -2384,20 +2429,25 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2411,7 +2461,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2441,12 +2491,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2471,7 +2521,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2481,7 +2531,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2491,12 +2541,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2506,12 +2556,12 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2531,12 +2581,12 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2546,22 +2596,22 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2586,15 +2636,20 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2618,7 +2673,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2638,12 +2693,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2653,12 +2708,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2678,12 +2733,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2708,12 +2763,12 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2738,17 +2793,17 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2758,12 +2813,12 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -2773,7 +2828,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2783,15 +2838,20 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2810,7 +2870,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2830,22 +2890,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2860,42 +2920,42 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2910,22 +2970,22 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2960,7 +3020,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -2980,15 +3040,20 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -3007,7 +3072,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3057,12 +3122,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3077,12 +3142,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -3112,12 +3177,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3137,7 +3202,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3152,7 +3217,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -3172,20 +3237,25 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -3199,22 +3269,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3234,12 +3304,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3264,17 +3334,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3294,7 +3364,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -3304,17 +3374,17 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3324,7 +3394,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -3359,12 +3429,12 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -3374,15 +3444,20 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -3441,22 +3516,22 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3506,7 +3581,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -3521,17 +3596,17 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -3541,12 +3616,12 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3556,12 +3631,12 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -3571,15 +3646,20 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -3603,7 +3683,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3613,12 +3693,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3628,7 +3708,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3673,12 +3753,12 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -3693,12 +3773,12 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -3713,7 +3793,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -3723,27 +3803,27 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3763,20 +3843,25 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -3790,7 +3875,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3805,7 +3890,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3880,12 +3965,12 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3910,22 +3995,22 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -3945,12 +4030,12 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3965,15 +4050,20 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -3997,7 +4087,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4037,12 +4127,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4052,7 +4142,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -4062,17 +4152,17 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -4092,7 +4182,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -4107,17 +4197,17 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -4127,7 +4217,7 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -4137,7 +4227,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -4152,7 +4242,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4162,15 +4252,20 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -4194,7 +4289,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4209,12 +4304,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4224,7 +4319,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4234,7 +4329,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4294,12 +4389,12 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -4354,20 +4449,25 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AM20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -4381,12 +4481,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4431,7 +4531,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4446,7 +4546,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -4461,12 +4561,12 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -4481,7 +4581,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -4491,7 +4591,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -4501,32 +4601,32 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -4556,15 +4656,20 @@
       </c>
       <c r="AK21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AM21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -4583,7 +4688,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4603,12 +4708,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4638,12 +4743,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -4698,7 +4803,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -4708,7 +4813,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -4728,12 +4833,12 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -4743,25 +4848,30 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AM22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -4775,7 +4885,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4785,12 +4895,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4840,7 +4950,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -4850,12 +4960,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -4875,7 +4985,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -4885,7 +4995,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4895,27 +5005,27 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
@@ -4925,22 +5035,22 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -4950,15 +5060,20 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AM23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -5007,22 +5122,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5037,12 +5152,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -5067,22 +5182,22 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -5097,22 +5212,22 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -5122,22 +5237,22 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -5147,15 +5262,20 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AM24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -5184,17 +5304,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5204,7 +5324,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -5229,12 +5349,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -5244,52 +5364,52 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -5299,12 +5419,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -5319,7 +5439,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -5329,7 +5449,7 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -5344,15 +5464,20 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AM25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,195 +441,200 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250727</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250724</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250722</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250720</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250717</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250715</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250713</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250710</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250708</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -643,12 +648,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -663,12 +668,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -683,12 +688,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -753,27 +758,27 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -793,7 +798,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -808,7 +813,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -823,15 +828,20 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -850,12 +860,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -865,12 +875,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -905,42 +915,42 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -955,12 +965,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -980,7 +990,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -995,7 +1005,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1005,12 +1015,12 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1025,15 +1035,20 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -1072,7 +1087,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1087,17 +1102,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1117,7 +1132,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1127,27 +1142,27 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1157,12 +1172,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1182,22 +1197,22 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1222,20 +1237,25 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1249,22 +1269,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1284,7 +1304,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1294,7 +1314,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1309,12 +1329,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1334,22 +1354,22 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1359,7 +1379,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1369,7 +1389,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1379,7 +1399,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1389,7 +1409,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1399,7 +1419,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1409,7 +1429,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1429,15 +1449,20 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1481,12 +1506,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1521,12 +1546,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1546,7 +1571,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1556,7 +1581,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1591,7 +1616,7 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1611,7 +1636,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1621,25 +1646,30 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1658,7 +1688,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1668,12 +1698,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1688,17 +1718,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1718,7 +1748,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1728,12 +1758,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1748,17 +1778,17 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1768,7 +1798,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1808,12 +1838,12 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1823,25 +1853,30 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1855,7 +1890,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1910,12 +1945,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1950,12 +1985,12 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1975,7 +2010,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1985,17 +2020,17 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -2020,30 +2055,35 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -2057,7 +2097,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2092,12 +2132,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2122,7 +2162,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2132,7 +2172,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2142,7 +2182,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2152,17 +2192,17 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2172,12 +2212,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2197,7 +2237,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -2212,7 +2252,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2232,20 +2272,25 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -2264,12 +2309,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2284,12 +2329,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2314,22 +2359,22 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2354,7 +2399,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2364,7 +2409,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2374,7 +2419,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2384,7 +2429,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2409,22 +2454,22 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2434,20 +2479,25 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2461,12 +2511,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2496,12 +2546,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2526,7 +2576,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2536,7 +2586,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2546,12 +2596,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2561,12 +2611,12 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2586,12 +2636,12 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2601,22 +2651,22 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2641,15 +2691,20 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2663,7 +2718,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2678,7 +2733,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2698,12 +2753,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2713,12 +2768,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2738,12 +2793,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2768,12 +2823,12 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2798,17 +2853,17 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2818,12 +2873,12 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2833,7 +2888,7 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -2843,15 +2898,20 @@
       </c>
       <c r="AL12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2865,7 +2925,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2875,7 +2935,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2895,22 +2955,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2925,42 +2985,42 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -2975,22 +3035,22 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -3025,7 +3085,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -3045,15 +3105,20 @@
       </c>
       <c r="AL13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -3077,7 +3142,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3127,12 +3192,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3147,12 +3212,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -3182,12 +3247,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -3207,7 +3272,7 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -3222,7 +3287,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3242,20 +3307,25 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -3269,27 +3339,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3309,12 +3379,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -3339,17 +3409,17 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3369,7 +3439,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3379,17 +3449,17 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -3399,7 +3469,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3434,12 +3504,12 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
@@ -3449,15 +3519,20 @@
       </c>
       <c r="AL15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -3521,22 +3596,22 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -3586,7 +3661,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3601,17 +3676,17 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -3621,12 +3696,12 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3636,12 +3711,12 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -3651,15 +3726,20 @@
       </c>
       <c r="AL16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -3688,7 +3768,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3698,12 +3778,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3713,7 +3793,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3758,12 +3838,12 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -3778,12 +3858,12 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3798,7 +3878,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -3808,27 +3888,27 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -3848,20 +3928,25 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -3875,12 +3960,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3895,7 +3980,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3970,12 +4055,12 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -4000,22 +4085,22 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -4035,12 +4120,12 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -4055,15 +4140,20 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -4077,7 +4167,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4092,7 +4182,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4132,12 +4222,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4147,7 +4237,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -4157,17 +4247,17 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -4187,7 +4277,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -4202,17 +4292,17 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -4222,7 +4312,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
@@ -4232,7 +4322,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4247,7 +4337,7 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -4257,15 +4347,20 @@
       </c>
       <c r="AL19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -4279,7 +4374,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4294,7 +4389,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4309,12 +4404,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4324,7 +4419,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -4334,7 +4429,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4394,12 +4489,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -4454,20 +4549,25 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -4486,12 +4586,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4536,7 +4636,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4551,7 +4651,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4566,12 +4666,12 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -4586,7 +4686,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -4596,7 +4696,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -4606,32 +4706,32 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -4661,15 +4761,20 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -4683,7 +4788,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4693,7 +4798,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4713,12 +4818,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4748,12 +4853,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4808,7 +4913,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -4818,7 +4923,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -4838,12 +4943,12 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -4853,25 +4958,30 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -4885,12 +4995,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4900,12 +5010,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4955,7 +5065,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4965,12 +5075,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -4990,7 +5100,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -5000,7 +5110,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5010,27 +5120,27 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -5040,22 +5150,22 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
@@ -5065,15 +5175,20 @@
       </c>
       <c r="AL23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -5127,22 +5242,22 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5157,12 +5272,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -5187,22 +5302,22 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -5217,22 +5332,22 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -5242,22 +5357,22 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
@@ -5267,15 +5382,20 @@
       </c>
       <c r="AL24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -5309,17 +5429,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5329,7 +5449,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5354,12 +5474,12 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -5369,52 +5489,52 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -5424,12 +5544,12 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
@@ -5444,7 +5564,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -5454,7 +5574,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -5469,15 +5589,20 @@
       </c>
       <c r="AL25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AP25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,200 +441,205 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250729</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250727</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250724</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250722</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250720</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250717</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250715</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250713</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250710</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250708</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -653,12 +658,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -673,12 +678,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -693,12 +698,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -763,27 +768,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -803,7 +808,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -818,7 +823,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -833,15 +838,20 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -865,12 +875,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -880,12 +890,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -920,42 +930,42 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -970,12 +980,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -995,7 +1005,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1010,7 +1020,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1020,12 +1030,12 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1040,15 +1050,20 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -1092,7 +1107,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1107,17 +1122,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1137,7 +1152,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1147,27 +1162,27 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1177,12 +1192,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1202,22 +1217,22 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1242,20 +1257,25 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1274,22 +1294,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1309,7 +1329,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1319,7 +1339,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1334,12 +1354,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1359,22 +1379,22 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1384,7 +1404,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1394,7 +1414,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1404,7 +1424,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1414,7 +1434,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1424,7 +1444,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1434,7 +1454,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1454,15 +1474,20 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1511,12 +1536,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1551,12 +1576,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1576,7 +1601,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1586,7 +1611,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1621,7 +1646,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1641,7 +1666,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1651,25 +1676,30 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1693,7 +1723,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1703,12 +1733,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1723,17 +1753,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1753,7 +1783,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1763,12 +1793,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1783,17 +1813,17 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1803,7 +1833,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1843,12 +1873,12 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1858,25 +1888,30 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1890,12 +1925,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1950,12 +1985,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1990,12 +2025,12 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2015,7 +2050,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2025,17 +2060,17 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2060,30 +2095,35 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -2097,12 +2137,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2137,12 +2177,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -2167,7 +2207,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2177,7 +2217,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2187,7 +2227,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2197,17 +2237,17 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2217,12 +2257,12 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2242,7 +2282,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2257,7 +2297,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -2277,20 +2317,25 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -2314,12 +2359,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2334,12 +2379,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2364,22 +2409,22 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2404,7 +2449,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2414,7 +2459,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2424,7 +2469,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2434,7 +2479,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2459,22 +2504,22 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
@@ -2484,20 +2529,25 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2516,12 +2566,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2551,12 +2601,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2581,7 +2631,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2591,7 +2641,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2601,12 +2651,12 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -2616,12 +2666,12 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2641,12 +2691,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2656,22 +2706,22 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2696,15 +2746,20 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2723,7 +2778,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2738,7 +2793,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2758,12 +2813,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2773,12 +2828,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2798,12 +2853,12 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2828,12 +2883,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2858,17 +2913,17 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2878,12 +2933,12 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2893,7 +2948,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -2903,15 +2958,20 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2930,7 +2990,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2940,7 +3000,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2960,22 +3020,22 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2990,42 +3050,42 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3040,22 +3100,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -3090,7 +3150,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3110,15 +3170,20 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -3132,7 +3197,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3147,7 +3212,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3197,12 +3262,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -3217,12 +3282,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -3252,12 +3317,12 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -3277,7 +3342,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -3292,7 +3357,7 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -3312,20 +3377,25 @@
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -3344,27 +3414,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3384,12 +3454,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -3414,17 +3484,17 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -3444,7 +3514,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3454,17 +3524,17 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -3474,7 +3544,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3509,12 +3579,12 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -3524,15 +3594,20 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -3601,22 +3676,22 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3666,7 +3741,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -3681,17 +3756,17 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -3701,12 +3776,12 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -3716,12 +3791,12 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -3731,15 +3806,20 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -3773,7 +3853,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3783,12 +3863,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3798,7 +3878,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3843,12 +3923,12 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -3863,12 +3943,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -3883,7 +3963,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3893,27 +3973,27 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -3933,20 +4013,25 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -3960,17 +4045,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3985,7 +4070,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4060,12 +4145,12 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -4090,22 +4175,22 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -4125,12 +4210,12 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -4145,15 +4230,20 @@
       </c>
       <c r="AM18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -4172,7 +4262,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4187,7 +4277,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4227,12 +4317,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -4242,7 +4332,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4252,17 +4342,17 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -4282,7 +4372,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4297,17 +4387,17 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -4317,7 +4407,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -4327,7 +4417,7 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -4342,7 +4432,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4352,15 +4442,20 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -4379,7 +4474,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4394,7 +4489,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4409,12 +4504,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4424,7 +4519,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4434,7 +4529,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4494,12 +4589,12 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -4554,20 +4649,25 @@
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -4581,7 +4681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4591,12 +4691,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4641,7 +4741,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -4656,7 +4756,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -4671,12 +4771,12 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -4691,7 +4791,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -4701,7 +4801,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -4711,32 +4811,32 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -4766,15 +4866,20 @@
       </c>
       <c r="AM21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -4788,12 +4893,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4803,7 +4908,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4823,12 +4928,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4858,12 +4963,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -4918,7 +5023,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -4928,7 +5033,7 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
@@ -4948,12 +5053,12 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -4963,25 +5068,30 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -5000,12 +5110,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5015,12 +5125,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5070,7 +5180,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5080,12 +5190,12 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -5105,7 +5215,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -5115,7 +5225,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -5125,27 +5235,27 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -5155,22 +5265,22 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -5180,15 +5290,20 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -5247,22 +5362,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -5277,12 +5392,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -5307,22 +5422,22 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -5337,22 +5452,22 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -5362,22 +5477,22 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -5387,15 +5502,20 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -5409,7 +5529,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5434,17 +5554,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -5454,7 +5574,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -5479,12 +5599,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -5494,52 +5614,52 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -5549,12 +5669,12 @@
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -5569,7 +5689,7 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -5579,7 +5699,7 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
@@ -5594,15 +5714,20 @@
       </c>
       <c r="AM25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP25"/>
+  <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,205 +441,210 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250731</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250729</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250727</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250724</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250722</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250720</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250717</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250715</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250713</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250710</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250708</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -653,7 +658,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -663,12 +668,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -683,12 +688,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -703,12 +708,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -773,27 +778,27 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -813,7 +818,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -828,7 +833,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -843,15 +848,20 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -865,7 +875,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -880,12 +890,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -895,12 +905,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -935,42 +945,42 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -985,12 +995,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1010,7 +1020,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1025,7 +1035,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1035,12 +1045,12 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1055,15 +1065,20 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -1112,7 +1127,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1127,17 +1142,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1157,7 +1172,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1167,27 +1182,27 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1197,12 +1212,12 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1222,22 +1237,22 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1262,20 +1277,25 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1299,22 +1319,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1334,7 +1354,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1344,7 +1364,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1359,12 +1379,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1384,22 +1404,22 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1409,7 +1429,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1419,7 +1439,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1429,7 +1449,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1439,7 +1459,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1449,7 +1469,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1459,7 +1479,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1479,15 +1499,20 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1501,7 +1526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1541,12 +1566,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1581,12 +1606,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1606,7 +1631,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1616,7 +1641,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1651,7 +1676,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1671,7 +1696,7 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1681,25 +1706,30 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1713,7 +1743,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1728,7 +1758,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1738,12 +1768,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1758,17 +1788,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1788,7 +1818,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1798,12 +1828,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1818,17 +1848,17 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1838,7 +1868,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1878,12 +1908,12 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -1893,25 +1923,30 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1930,12 +1965,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1990,12 +2025,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -2030,12 +2065,12 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -2055,7 +2090,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2065,17 +2100,17 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -2100,30 +2135,35 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -2142,12 +2182,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2182,12 +2222,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2212,7 +2252,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2222,7 +2262,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2232,7 +2272,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -2242,17 +2282,17 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2262,12 +2302,12 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2287,7 +2327,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2302,7 +2342,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2322,20 +2362,25 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -2349,7 +2394,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2364,12 +2409,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2384,12 +2429,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2414,22 +2459,22 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2454,7 +2499,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2464,7 +2509,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2474,7 +2519,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2484,7 +2529,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2509,22 +2554,22 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2534,20 +2579,25 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2571,12 +2621,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2606,12 +2656,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2636,7 +2686,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2646,7 +2696,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2656,12 +2706,12 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2671,12 +2721,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2696,12 +2746,12 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2711,22 +2761,22 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2751,15 +2801,20 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2773,7 +2828,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2783,7 +2838,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2798,7 +2853,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2818,12 +2873,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2833,12 +2888,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2858,12 +2913,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2888,12 +2943,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2918,17 +2973,17 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -2938,12 +2993,12 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -2953,7 +3008,7 @@
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
@@ -2963,15 +3018,20 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -2985,7 +3045,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2995,7 +3055,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3005,7 +3065,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3025,22 +3085,22 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3055,42 +3115,42 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -3105,22 +3165,22 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3155,7 +3215,7 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -3175,15 +3235,20 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -3202,7 +3267,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3217,7 +3282,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3267,12 +3332,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3287,12 +3352,12 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -3322,12 +3387,12 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3347,7 +3412,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -3362,7 +3427,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3382,20 +3447,25 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -3409,7 +3479,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3419,27 +3489,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3459,12 +3529,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3489,17 +3559,17 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -3519,7 +3589,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3529,17 +3599,17 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3549,7 +3619,7 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -3584,12 +3654,12 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
@@ -3599,15 +3669,20 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -3621,7 +3696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3681,22 +3756,22 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -3746,7 +3821,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -3761,17 +3836,17 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3781,12 +3856,12 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -3796,12 +3871,12 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
@@ -3811,15 +3886,20 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -3858,7 +3938,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3868,12 +3948,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3883,7 +3963,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3928,12 +4008,12 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -3948,12 +4028,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -3968,7 +4048,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -3978,27 +4058,27 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4018,20 +4098,25 @@
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -4050,17 +4135,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4075,7 +4160,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4150,12 +4235,12 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -4180,22 +4265,22 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -4215,12 +4300,12 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4235,15 +4320,20 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -4267,7 +4357,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4282,7 +4372,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4322,12 +4412,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -4337,7 +4427,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -4347,17 +4437,17 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -4377,7 +4467,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -4392,17 +4482,17 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
@@ -4412,7 +4502,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4422,7 +4512,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4437,7 +4527,7 @@
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
@@ -4447,15 +4537,20 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -4479,7 +4574,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4494,7 +4589,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4509,12 +4604,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -4524,7 +4619,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4534,7 +4629,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -4594,12 +4689,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -4654,20 +4749,25 @@
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -4686,7 +4786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4696,12 +4796,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4746,7 +4846,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -4761,7 +4861,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -4776,12 +4876,12 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -4796,7 +4896,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -4806,7 +4906,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -4816,32 +4916,32 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -4871,15 +4971,20 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -4898,12 +5003,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4913,7 +5018,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4933,12 +5038,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -4968,12 +5073,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5028,7 +5133,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -5038,7 +5143,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -5058,12 +5163,12 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
@@ -5073,25 +5178,30 @@
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -5115,12 +5225,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5130,12 +5240,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5185,7 +5295,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -5195,12 +5305,12 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -5220,7 +5330,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5230,7 +5340,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -5240,27 +5350,27 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5270,22 +5380,22 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
@@ -5295,15 +5405,20 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -5367,22 +5482,22 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -5397,12 +5512,12 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -5427,22 +5542,22 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -5457,22 +5572,22 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -5482,22 +5597,22 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
@@ -5507,15 +5622,20 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -5529,12 +5649,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5559,17 +5679,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5579,7 +5699,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5604,12 +5724,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -5619,52 +5739,52 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -5674,12 +5794,12 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -5694,7 +5814,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -5704,7 +5824,7 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -5719,15 +5839,20 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ25"/>
+  <dimension ref="A1:AR25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,210 +441,215 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250803</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250731</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250729</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250727</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250724</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250722</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250720</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250717</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250715</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250713</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250710</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250708</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -658,12 +663,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -673,12 +678,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -693,12 +698,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -713,12 +718,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -783,27 +788,27 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -823,7 +828,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -838,7 +843,7 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -853,15 +858,20 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -875,12 +885,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -895,12 +905,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -910,12 +920,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,42 +960,42 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -1000,12 +1010,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1025,7 +1035,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1040,7 +1050,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1050,12 +1060,12 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -1070,15 +1080,20 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -1132,7 +1147,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1147,17 +1162,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1177,7 +1192,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1187,27 +1202,27 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1217,12 +1232,12 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1242,22 +1257,22 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1282,20 +1297,25 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1324,22 +1344,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1359,7 +1379,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1369,7 +1389,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1384,12 +1404,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1409,22 +1429,22 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1434,7 +1454,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1444,7 +1464,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1454,7 +1474,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1464,7 +1484,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1474,7 +1494,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1484,7 +1504,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1504,15 +1524,20 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1526,12 +1551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1571,12 +1596,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1611,12 +1636,12 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1636,7 +1661,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1646,7 +1671,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1681,7 +1706,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1701,7 +1726,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1711,25 +1736,30 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1748,7 +1778,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1763,7 +1793,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1773,12 +1803,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1793,17 +1823,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1823,7 +1853,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1833,12 +1863,12 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1853,17 +1883,17 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1873,7 +1903,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1913,12 +1943,12 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1928,25 +1958,30 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1970,12 +2005,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2030,12 +2065,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2070,12 +2105,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2095,7 +2130,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2105,17 +2140,17 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2140,30 +2175,35 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -2187,12 +2227,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2227,12 +2267,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2257,7 +2297,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2267,7 +2307,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2277,7 +2317,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2287,17 +2327,17 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2307,12 +2347,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2332,7 +2372,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2347,7 +2387,7 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -2367,20 +2407,25 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -2394,12 +2439,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2414,12 +2459,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2434,12 +2479,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2464,22 +2509,22 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2504,7 +2549,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2514,7 +2559,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2524,7 +2569,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2534,7 +2579,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -2559,22 +2604,22 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -2584,20 +2629,25 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2626,12 +2676,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2661,12 +2711,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2691,7 +2741,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2701,7 +2751,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2711,12 +2761,12 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2726,12 +2776,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2751,12 +2801,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2766,22 +2816,22 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -2806,15 +2856,20 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2828,12 +2883,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2843,7 +2898,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2858,7 +2913,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2878,12 +2933,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2893,12 +2948,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2918,12 +2973,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -2948,12 +3003,12 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2978,17 +3033,17 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2998,12 +3053,12 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3013,7 +3068,7 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
@@ -3023,15 +3078,20 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -3045,12 +3105,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3060,7 +3120,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3070,7 +3130,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3090,22 +3150,22 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3120,42 +3180,42 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -3170,22 +3230,22 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -3220,7 +3280,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3240,15 +3300,20 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -3262,7 +3327,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3272,7 +3337,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3287,7 +3352,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3337,12 +3402,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -3357,12 +3422,12 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -3392,12 +3457,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3417,7 +3482,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3432,7 +3497,7 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
@@ -3452,20 +3517,25 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -3484,7 +3554,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3494,27 +3564,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3534,12 +3604,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3564,17 +3634,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -3594,7 +3664,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3604,17 +3674,17 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3624,7 +3694,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -3659,12 +3729,12 @@
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
@@ -3674,15 +3744,20 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -3696,12 +3771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3761,22 +3836,22 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -3826,7 +3901,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -3841,17 +3916,17 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3861,12 +3936,12 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -3876,12 +3951,12 @@
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
@@ -3891,15 +3966,20 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -3943,7 +4023,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3953,12 +4033,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3968,7 +4048,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4013,12 +4093,12 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -4033,12 +4113,12 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -4053,7 +4133,7 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
@@ -4063,27 +4143,27 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
@@ -4103,20 +4183,25 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AR17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -4130,7 +4215,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4140,17 +4225,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4165,7 +4250,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -4240,12 +4325,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4270,22 +4355,22 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4305,12 +4390,12 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
@@ -4325,15 +4410,20 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -4362,7 +4452,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4377,7 +4467,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4417,12 +4507,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4432,7 +4522,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -4442,17 +4532,17 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -4472,7 +4562,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -4487,17 +4577,17 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -4507,7 +4597,7 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -4517,7 +4607,7 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -4532,7 +4622,7 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
@@ -4542,15 +4632,20 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AR19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -4579,7 +4674,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4594,7 +4689,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4609,12 +4704,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4624,7 +4719,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4634,7 +4729,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4694,12 +4789,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -4754,20 +4849,25 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AR20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -4781,7 +4881,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4791,7 +4891,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4801,12 +4901,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4851,7 +4951,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4866,7 +4966,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -4881,12 +4981,12 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -4901,7 +5001,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -4911,7 +5011,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -4921,32 +5021,32 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
@@ -4976,15 +5076,20 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AR21" t="inlineStr">
         <is>
           <t>job_report_weekly</t>
         </is>
@@ -4998,7 +5103,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5008,12 +5113,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5023,7 +5128,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -5043,12 +5148,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -5078,12 +5183,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -5138,7 +5243,7 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
@@ -5148,7 +5253,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -5168,12 +5273,12 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -5183,25 +5288,30 @@
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AR22" t="inlineStr">
         <is>
           <t>job_report_monthly</t>
         </is>
@@ -5230,12 +5340,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5245,12 +5355,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -5300,7 +5410,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -5310,12 +5420,12 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -5335,7 +5445,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -5345,7 +5455,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -5355,27 +5465,27 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
@@ -5385,22 +5495,22 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
@@ -5410,15 +5520,20 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AR23" t="inlineStr">
         <is>
           <t>job_payment_proc</t>
         </is>
@@ -5487,22 +5602,22 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -5517,12 +5632,12 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -5547,22 +5662,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -5577,22 +5692,22 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
@@ -5602,22 +5717,22 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
@@ -5627,15 +5742,20 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AR24" t="inlineStr">
         <is>
           <t>job_tax_calc</t>
         </is>
@@ -5654,12 +5774,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5684,17 +5804,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -5704,7 +5824,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5729,12 +5849,12 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -5744,52 +5864,52 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
@@ -5799,12 +5919,12 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -5819,7 +5939,7 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
@@ -5829,7 +5949,7 @@
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
@@ -5844,15 +5964,20 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>billing</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AR25" t="inlineStr">
         <is>
           <t>job_invoice_gen</t>
         </is>

--- a/data/log_analysis_tracker.xlsx
+++ b/data/log_analysis_tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR25"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,215 +441,220 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>analysis_results_20250805</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>analysis_results_20250803</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250731</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250729</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250727</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250724</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250722</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250720</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250717</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250715</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250713</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250710</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250708</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250706</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250703</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250701</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250629</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250626</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250624</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250622</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250619</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250617</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250615</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250612</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250610</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250608</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250605</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250603</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250601</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250529</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250527</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250525</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250522</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250520</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250518</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250515</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250513</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250511</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250508</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250506</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>analysis_results_20250505</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>department</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>job_name</t>
         </is>
@@ -663,17 +668,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,12 +688,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -703,12 +708,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -723,12 +728,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -793,27 +798,27 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -833,7 +838,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -848,7 +853,7 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -863,15 +868,20 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>job_maintenance_plan</t>
         </is>
@@ -890,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -910,12 +920,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -925,12 +935,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -965,42 +975,42 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1015,12 +1025,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1040,7 +1050,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1055,7 +1065,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1065,12 +1075,12 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1085,15 +1095,20 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>job_staff_roster</t>
         </is>
@@ -1152,7 +1167,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1167,17 +1182,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1197,7 +1212,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1207,27 +1222,27 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1237,12 +1252,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1262,22 +1277,22 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1302,20 +1317,25 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>scheduling</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>job_resource_alloc</t>
         </is>
@@ -1349,22 +1369,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1384,7 +1404,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1394,7 +1414,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1409,12 +1429,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1434,22 +1454,22 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1459,7 +1479,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1469,7 +1489,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1479,7 +1499,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1489,7 +1509,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1499,7 +1519,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1509,7 +1529,7 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1529,15 +1549,20 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>job_warehouse_mgmt</t>
         </is>
@@ -1556,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1601,12 +1626,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1641,12 +1666,12 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1666,7 +1691,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1676,7 +1701,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1711,7 +1736,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1731,7 +1756,7 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -1741,25 +1766,30 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>job_shipment_track</t>
         </is>
@@ -1773,7 +1803,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1783,7 +1813,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1798,7 +1828,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1808,12 +1838,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1828,17 +1858,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1858,7 +1888,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1868,12 +1898,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1888,17 +1918,17 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1908,7 +1938,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1948,12 +1978,12 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -1963,25 +1993,30 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>logistics</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>job_inventory_check</t>
         </is>
@@ -1995,7 +2030,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2010,12 +2045,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2070,12 +2105,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2110,12 +2145,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -2135,7 +2170,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -2145,17 +2180,17 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -2180,30 +2215,35 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>job_tax_withhold</t>
         </is>
@@ -2232,12 +2272,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2272,12 +2312,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2302,7 +2342,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2312,7 +2352,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -2322,7 +2362,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2332,17 +2372,17 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2352,12 +2392,12 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -2377,7 +2417,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -2392,7 +2432,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2412,20 +2452,25 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>job_salary_calc</t>
         </is>
@@ -2444,12 +2489,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2464,12 +2509,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2484,12 +2529,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2514,22 +2559,22 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2554,7 +2599,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2564,7 +2609,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2574,7 +2619,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2584,7 +2629,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2609,22 +2654,22 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2634,20 +2679,25 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>job_bonus_process</t>
         </is>
@@ -2681,12 +2731,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2716,12 +2766,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2746,7 +2796,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2756,7 +2806,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -2766,12 +2816,12 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2781,12 +2831,12 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2806,12 +2856,12 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2821,22 +2871,22 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -2861,15 +2911,20 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>job_offer_gen</t>
         </is>
@@ -2883,17 +2938,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2903,7 +2958,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2918,7 +2973,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2938,12 +2993,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2953,12 +3008,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2978,12 +3033,12 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -3008,12 +3063,12 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -3038,17 +3093,17 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3058,12 +3113,12 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
@@ -3073,7 +3128,7 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -3083,15 +3138,20 @@
       </c>
       <c r="AP12" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>job_interview_sched</t>
         </is>
@@ -3110,12 +3170,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3125,7 +3185,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3135,7 +3195,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3155,22 +3215,22 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3185,42 +3245,42 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3235,22 +3295,22 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3285,7 +3345,7 @@
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -3305,15 +3365,20 @@
       </c>
       <c r="AP13" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>job_candidate_screen</t>
         </is>
@@ -3327,12 +3392,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3342,7 +3407,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3357,7 +3422,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3407,12 +3472,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -3427,12 +3492,12 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -3462,12 +3527,12 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -3487,7 +3552,7 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -3502,7 +3567,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3522,20 +3587,25 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>job_segment_users</t>
         </is>
@@ -3549,7 +3619,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3559,7 +3629,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3569,27 +3639,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3609,12 +3679,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3639,17 +3709,17 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3669,7 +3739,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -3679,17 +3749,17 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -3699,7 +3769,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3734,12 +3804,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -3749,15 +3819,20 @@
       </c>
       <c r="AP15" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>job_update_crm</t>
         </is>
@@ -3776,12 +3851,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3841,22 +3916,22 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3906,7 +3981,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -3921,17 +3996,17 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -3941,12 +4016,12 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -3956,12 +4031,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -3971,15 +4046,20 @@
       </c>
       <c r="AP16" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>campaigns</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>job_email_blast</t>
         </is>
@@ -4028,7 +4108,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -4038,12 +4118,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -4053,7 +4133,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4098,12 +4178,12 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -4118,12 +4198,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -4138,7 +4218,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -4148,27 +4228,27 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -4188,20 +4268,25 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AR17" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>job_web_traffic</t>
         </is>
@@ -4215,12 +4300,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4230,17 +4315,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4255,7 +4340,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4330,12 +4415,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -4360,22 +4445,22 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -4395,12 +4480,12 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
@@ -4415,15 +4500,20 @@
       </c>
       <c r="AP18" t="inlineStr">
         <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>job_conversion_rate</t>
         </is>
@@ -4457,7 +4547,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4472,7 +4562,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -4512,12 +4602,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -4527,7 +4617,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -4537,17 +4627,17 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -4567,7 +4657,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -4582,17 +4672,17 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4602,7 +4692,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4612,7 +4702,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4627,7 +4717,7 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -4637,15 +4727,20 @@
       </c>
       <c r="AP19" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AR19" t="inlineStr">
         <is>
           <t>analytics</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>job_roi_report</t>
         </is>
@@ -4679,7 +4774,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4694,7 +4789,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4709,12 +4804,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4724,7 +4819,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -4734,7 +4829,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -4794,12 +4889,12 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
@@ -4854,20 +4949,25 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
           <t>finance</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AR20" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>job_report_daily</t>
         </is>
@@ -4881,12 +4981,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4896,7 +4996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4906,12 +5006,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -4956,7 +5056,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -4971,7 +5071,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -4986,12 +5086,12 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -5006,7 +5106,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -5016,7 +5116,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -5026,32 +5126,32 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
    